--- a/Data/Larval-DNA/DNA-extraction-data.xlsx
+++ b/Data/Larval-DNA/DNA-extraction-data.xlsx
@@ -4,15 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28331"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11180" yWindow="0" windowWidth="13800" windowHeight="15220" tabRatio="803" activeTab="1"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="25520" windowHeight="15280" tabRatio="1000" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="DNA" sheetId="1" r:id="rId1"/>
-    <sheet name="QuBit Calcs" sheetId="2" r:id="rId2"/>
-    <sheet name="QubitData_2018-03-08_17-53-34.c" sheetId="4" r:id="rId3"/>
-    <sheet name="QubitData_2018-03-10_01-06-26.c" sheetId="3" r:id="rId4"/>
-    <sheet name="QubitData_2018-03-13_01-53-54.c" sheetId="5" r:id="rId5"/>
-    <sheet name="RNA " sheetId="6" r:id="rId6"/>
+    <sheet name="DNA Samples" sheetId="1" r:id="rId1"/>
+    <sheet name="RNA Samples" sheetId="6" r:id="rId2"/>
+    <sheet name="QuBit Mix Calcs" sheetId="2" r:id="rId3"/>
+    <sheet name="QubitData_2018-03-08_17-53-34.c" sheetId="4" r:id="rId4"/>
+    <sheet name="QubitData_2018-03-10_01-06-26.c" sheetId="3" r:id="rId5"/>
+    <sheet name="QubitData_2018-03-13_Larvae-DNA" sheetId="5" r:id="rId6"/>
+    <sheet name="QubitData_2018-03-27_Gonad-RNA" sheetId="7" r:id="rId7"/>
+    <sheet name="QubitData_2018-04-02_11-21-01.c" sheetId="8" r:id="rId8"/>
+    <sheet name="QuantSeq-Samples" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,8 +26,84 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Laura Spencer</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Laura Spencer:
+The 24 samples I selected are all marked "1".  I've color-coded them by group (tissue type, treatment).  For each gonad tissue group I selected two back-up samples, numbered 2 &amp; 3. 
+There are no back-up larval samples. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Laura Spencer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+The tube labels correspond do this column 
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Laura Spencer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This sample is one that Sam send you last year. I'm not sure what he named it - possibly SN-10-16 (the sample label)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="362">
   <si>
     <t>SAMPLE #</t>
   </si>
@@ -812,9 +891,6 @@
     <t>Fixed Gonad</t>
   </si>
   <si>
-    <t>Sample date</t>
-  </si>
-  <si>
     <t>pH</t>
   </si>
   <si>
@@ -854,9 +930,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Oyster Sex</t>
-  </si>
-  <si>
     <t>Did not fully extract (ran out of columns)</t>
   </si>
   <si>
@@ -866,9 +939,6 @@
     <t>x</t>
   </si>
   <si>
-    <t xml:space="preserve">Total RNA </t>
-  </si>
-  <si>
     <t>SN-6-Ambient</t>
   </si>
   <si>
@@ -881,15 +951,6 @@
     <t>6-A</t>
   </si>
   <si>
-    <t>26-A or 67-A</t>
-  </si>
-  <si>
-    <t>Extraction Date</t>
-  </si>
-  <si>
-    <t>7/?/2017</t>
-  </si>
-  <si>
     <t>DNA also extracted</t>
   </si>
   <si>
@@ -912,6 +973,247 @@
   </si>
   <si>
     <t>DNA Protocol Test 3/8/18</t>
+  </si>
+  <si>
+    <t>Far Red</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Sample_#180328-181408</t>
+  </si>
+  <si>
+    <t>RNA High sensitivity</t>
+  </si>
+  <si>
+    <t>2018-03-28_181337</t>
+  </si>
+  <si>
+    <t>Sample_#180328-181447</t>
+  </si>
+  <si>
+    <t>Sample_#180328-181459</t>
+  </si>
+  <si>
+    <t>Sample_#180328-181511</t>
+  </si>
+  <si>
+    <t>Sample_#180328-181522</t>
+  </si>
+  <si>
+    <t>Sample_#180328-181535</t>
+  </si>
+  <si>
+    <t>Sample_#180328-181547</t>
+  </si>
+  <si>
+    <t>Sample_#180328-181559</t>
+  </si>
+  <si>
+    <t>Sample_#180328-181612</t>
+  </si>
+  <si>
+    <t>Sample_#180328-181623</t>
+  </si>
+  <si>
+    <t>Sample_#180328-181637</t>
+  </si>
+  <si>
+    <t>Sample_#180328-181649</t>
+  </si>
+  <si>
+    <t>Sample_#180328-181701</t>
+  </si>
+  <si>
+    <t>Sample_#180328-181712</t>
+  </si>
+  <si>
+    <t>Sample_#180328-181724</t>
+  </si>
+  <si>
+    <t>Sample_#180328-181752</t>
+  </si>
+  <si>
+    <t>Sample_#180328-181802</t>
+  </si>
+  <si>
+    <t>Sample_#180328-181814</t>
+  </si>
+  <si>
+    <t>Sample_#180328-181834</t>
+  </si>
+  <si>
+    <t>Sample_#180328-181845</t>
+  </si>
+  <si>
+    <t>Sample_#180328-181858</t>
+  </si>
+  <si>
+    <t>Sample_#180328-181911</t>
+  </si>
+  <si>
+    <t>Sample_#180328-181925</t>
+  </si>
+  <si>
+    <t>Sample_#180328-181935</t>
+  </si>
+  <si>
+    <t>Sample_#180328-181946</t>
+  </si>
+  <si>
+    <t>Sample_#180328-182001</t>
+  </si>
+  <si>
+    <t>Approx. ng RNA</t>
+  </si>
+  <si>
+    <t>RNA Concentration (ng/ul)</t>
+  </si>
+  <si>
+    <t>Approximate RNA isolated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Larvae RNA extraction </t>
+  </si>
+  <si>
+    <t>2018-04-02_111820</t>
+  </si>
+  <si>
+    <t>Sample_#180402-112036</t>
+  </si>
+  <si>
+    <t>Sample_#180402-112025</t>
+  </si>
+  <si>
+    <t>Sample_#180402-112018</t>
+  </si>
+  <si>
+    <t>Sample_#180402-112011</t>
+  </si>
+  <si>
+    <t>Sample_#180402-112003</t>
+  </si>
+  <si>
+    <t>Sample_#180402-111956</t>
+  </si>
+  <si>
+    <t>Sample_#180402-111949</t>
+  </si>
+  <si>
+    <t>Sample_#180402-111941</t>
+  </si>
+  <si>
+    <t>Sample_#180402-111933</t>
+  </si>
+  <si>
+    <t>Sample_#180402-111927</t>
+  </si>
+  <si>
+    <t>Sample_#180402-111920</t>
+  </si>
+  <si>
+    <t>Sample_#180402-111911</t>
+  </si>
+  <si>
+    <t>Sample_#180402-111903</t>
+  </si>
+  <si>
+    <t>Sample_#180402-111846</t>
+  </si>
+  <si>
+    <t>Out of range - TOO LOW</t>
+  </si>
+  <si>
+    <t>Out of range - TOO HIGH</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Selected for Sequencing</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>HPM</t>
+  </si>
+  <si>
+    <t>SN-10-16</t>
+  </si>
+  <si>
+    <t>SN-10-17</t>
+  </si>
+  <si>
+    <t>sam</t>
+  </si>
+  <si>
+    <t>SN-10-20</t>
+  </si>
+  <si>
+    <t>SN-6 Ambient B</t>
+  </si>
+  <si>
+    <t>SN-10 Low B</t>
+  </si>
+  <si>
+    <t>SN-10 Low A</t>
+  </si>
+  <si>
+    <t>SN-6 Ambient A</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">26-A  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or 67-A</t>
+    </r>
+  </si>
+  <si>
+    <t>Gonad Sex</t>
+  </si>
+  <si>
+    <t>Gonad Stage</t>
+  </si>
+  <si>
+    <t>Tissue Sample date</t>
+  </si>
+  <si>
+    <t>RNA Extraction Date</t>
+  </si>
+  <si>
+    <t>sam, July 2017</t>
+  </si>
+  <si>
+    <t>Sample Label</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">26-A  </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or 67-A</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -923,7 +1225,21 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -988,13 +1304,124 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1021,428 +1448,519 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="414">
+  <cellStyleXfs count="505">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="81" applyNumberFormat="1" applyFont="1"/>
@@ -1472,22 +1990,325 @@
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="81" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="81" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="414" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="81" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="1" xfId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="414" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="3" borderId="1" xfId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="1" xfId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="4" borderId="1" xfId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="414" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="3" borderId="0" xfId="414" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="0" xfId="414" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="414" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="1" xfId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="1" xfId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="1" xfId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="1" xfId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" xfId="414" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="1" xfId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="81" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="1" xfId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="414" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="8" borderId="1" xfId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" xfId="414" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="414" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="1" xfId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="19" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="6" borderId="1" xfId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="1" xfId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="81" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="414">
+  <cellStyles count="505">
     <cellStyle name="Comma" xfId="81" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="175"/>
+    <cellStyle name="Comma 3" xfId="414"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1693,6 +2514,51 @@
     <cellStyle name="Followed Hyperlink" xfId="409" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="411" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="413" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="500" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="502" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="504" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1898,6 +2764,51 @@
     <cellStyle name="Hyperlink" xfId="408" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="410" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="412" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="451" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="453" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="455" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="457" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="459" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="473" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="475" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="477" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="495" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="497" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="499" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="501" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="503" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="102" builtinId="5"/>
   </cellStyles>
@@ -2380,11 +3291,11 @@
         <v>3.82</v>
       </c>
       <c r="N3" s="13">
-        <f t="shared" ref="N3:N5" si="1">M3*(200-10)</f>
+        <f>M3*(200-10)</f>
         <v>725.8</v>
       </c>
       <c r="O3" s="13">
-        <f t="shared" ref="O3:O9" si="2">0.01*N3</f>
+        <f t="shared" ref="O3:O9" si="1">0.01*N3</f>
         <v>7.258</v>
       </c>
     </row>
@@ -2421,11 +3332,11 @@
         <v>0.80800000000000005</v>
       </c>
       <c r="N4" s="13">
+        <f>M4*(200-10)</f>
+        <v>153.52000000000001</v>
+      </c>
+      <c r="O4" s="13">
         <f t="shared" si="1"/>
-        <v>153.52000000000001</v>
-      </c>
-      <c r="O4" s="13">
-        <f t="shared" si="2"/>
         <v>1.5352000000000001</v>
       </c>
     </row>
@@ -2462,11 +3373,11 @@
         <v>8.99</v>
       </c>
       <c r="N5" s="13">
+        <f>M5*(200-10)</f>
+        <v>1708.1000000000001</v>
+      </c>
+      <c r="O5" s="13">
         <f t="shared" si="1"/>
-        <v>1708.1000000000001</v>
-      </c>
-      <c r="O5" s="13">
-        <f t="shared" si="2"/>
         <v>17.081000000000003</v>
       </c>
     </row>
@@ -2507,7 +3418,7 @@
         <v>101.99999999999997</v>
       </c>
       <c r="O6" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.0199999999999998</v>
       </c>
       <c r="Q6" s="11" t="s">
@@ -2547,11 +3458,11 @@
         <v>3.6633333333333336</v>
       </c>
       <c r="N7" s="13">
-        <f t="shared" ref="N7:N9" si="3">M7*(200-20)</f>
+        <f>M7*(200-20)</f>
         <v>659.40000000000009</v>
       </c>
       <c r="O7" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.5940000000000012</v>
       </c>
     </row>
@@ -2588,11 +3499,11 @@
         <v>1.3533333333333335</v>
       </c>
       <c r="N8" s="13">
-        <f t="shared" si="3"/>
+        <f>M8*(200-20)</f>
         <v>243.60000000000002</v>
       </c>
       <c r="O8" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.4360000000000004</v>
       </c>
     </row>
@@ -2629,11 +3540,11 @@
         <v>0.88133333333333341</v>
       </c>
       <c r="N9" s="13">
-        <f t="shared" si="3"/>
+        <f>M9*(200-20)</f>
         <v>158.64000000000001</v>
       </c>
       <c r="O9" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.5864000000000003</v>
       </c>
     </row>
@@ -2870,11 +3781,11 @@
         <v>12.1</v>
       </c>
       <c r="N16" s="13">
-        <f t="shared" ref="N16:N22" si="4">M16*(200-10)</f>
+        <f t="shared" ref="N16:N22" si="2">M16*(200-10)</f>
         <v>2299</v>
       </c>
       <c r="O16" s="13">
-        <f t="shared" ref="O16:O22" si="5">N16*0.01</f>
+        <f t="shared" ref="O16:O22" si="3">N16*0.01</f>
         <v>22.990000000000002</v>
       </c>
     </row>
@@ -2905,11 +3816,11 @@
         <v>5.5</v>
       </c>
       <c r="N17" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1045</v>
       </c>
       <c r="O17" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>10.450000000000001</v>
       </c>
     </row>
@@ -2940,11 +3851,11 @@
         <v>12.75</v>
       </c>
       <c r="N18" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2422.5</v>
       </c>
       <c r="O18" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>24.225000000000001</v>
       </c>
     </row>
@@ -2975,11 +3886,11 @@
         <v>11.4</v>
       </c>
       <c r="N19" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2166</v>
       </c>
       <c r="O19" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>21.66</v>
       </c>
     </row>
@@ -3010,11 +3921,11 @@
         <v>6.18</v>
       </c>
       <c r="N20" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1174.2</v>
       </c>
       <c r="O20" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>11.742000000000001</v>
       </c>
     </row>
@@ -3045,11 +3956,11 @@
         <v>10.475</v>
       </c>
       <c r="N21" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1990.25</v>
       </c>
       <c r="O21" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>19.9025</v>
       </c>
     </row>
@@ -3080,11 +3991,11 @@
         <v>4.68</v>
       </c>
       <c r="N22" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>889.19999999999993</v>
       </c>
       <c r="O22" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>8.8919999999999995</v>
       </c>
     </row>
@@ -3162,7 +4073,7 @@
         <v>74</v>
       </c>
       <c r="K25" s="11" t="e">
-        <f t="shared" ref="K25" si="6">1000*(J25-I25)</f>
+        <f>1000*(J25-I25)</f>
         <v>#VALUE!</v>
       </c>
       <c r="M25" s="12" t="s">
@@ -3199,7 +4110,7 @@
         <v>41.299999999999891</v>
       </c>
       <c r="L27" s="18">
-        <f t="shared" ref="L27:L41" si="7">(K27/30)*350</f>
+        <f t="shared" ref="L27:L41" si="4">(K27/30)*350</f>
         <v>481.83333333333201</v>
       </c>
       <c r="M27" s="12">
@@ -3241,11 +4152,11 @@
         <v>1.5928</v>
       </c>
       <c r="K28" s="11">
-        <f t="shared" ref="K28:K50" si="8">(J28-I28)*1000</f>
+        <f t="shared" ref="K28:K50" si="5">(J28-I28)*1000</f>
         <v>45.199999999999903</v>
       </c>
       <c r="L28" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>527.33333333333223</v>
       </c>
       <c r="M28" s="12">
@@ -3283,11 +4194,11 @@
         <v>1.5842000000000001</v>
       </c>
       <c r="K29" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>35.60000000000008</v>
       </c>
       <c r="L29" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>415.33333333333428</v>
       </c>
       <c r="M29" s="12">
@@ -3327,11 +4238,11 @@
         <v>1.5742</v>
       </c>
       <c r="K30" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>51.800000000000068</v>
       </c>
       <c r="L30" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>604.33333333333417</v>
       </c>
       <c r="M30" s="12">
@@ -3373,11 +4284,11 @@
         <v>1.581</v>
       </c>
       <c r="K31" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>52.000000000000043</v>
       </c>
       <c r="L31" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>606.6666666666672</v>
       </c>
       <c r="M31" s="12">
@@ -3415,11 +4326,11 @@
         <v>1.6075999999999999</v>
       </c>
       <c r="K32" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>51.299999999999898</v>
       </c>
       <c r="L32" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>598.49999999999886</v>
       </c>
       <c r="M32" s="12">
@@ -3429,7 +4340,7 @@
         <v>2600</v>
       </c>
       <c r="O32" s="13">
-        <f t="shared" ref="O32:O50" si="9">0.01*N32</f>
+        <f t="shared" ref="O32:O50" si="6">0.01*N32</f>
         <v>26</v>
       </c>
     </row>
@@ -3459,11 +4370,11 @@
         <v>1.5819000000000001</v>
       </c>
       <c r="K33" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>49.600000000000087</v>
       </c>
       <c r="L33" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>578.66666666666765</v>
       </c>
       <c r="M33" s="12">
@@ -3473,7 +4384,7 @@
         <v>3625</v>
       </c>
       <c r="O33" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>36.25</v>
       </c>
       <c r="P33" s="19">
@@ -3505,11 +4416,11 @@
         <v>1.5936999999999999</v>
       </c>
       <c r="K34" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>37.499999999999865</v>
       </c>
       <c r="L34" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>437.49999999999847</v>
       </c>
       <c r="M34" s="12">
@@ -3519,7 +4430,7 @@
         <v>3500</v>
       </c>
       <c r="O34" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
     </row>
@@ -3547,11 +4458,11 @@
         <v>1.5641</v>
       </c>
       <c r="K35" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>40.399999999999991</v>
       </c>
       <c r="L35" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>471.33333333333326</v>
       </c>
       <c r="M35" s="12">
@@ -3561,7 +4472,7 @@
         <v>3187.5</v>
       </c>
       <c r="O35" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>31.875</v>
       </c>
     </row>
@@ -3591,11 +4502,11 @@
         <v>1.5671999999999999</v>
       </c>
       <c r="K36" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>43.699999999999847</v>
       </c>
       <c r="L36" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>509.8333333333315</v>
       </c>
       <c r="M36" s="12">
@@ -3605,7 +4516,7 @@
         <v>3687.5</v>
       </c>
       <c r="O36" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>36.875</v>
       </c>
       <c r="P36" s="19">
@@ -3637,11 +4548,11 @@
         <v>1.5851</v>
       </c>
       <c r="K37" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>38.899999999999935</v>
       </c>
       <c r="L37" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>453.83333333333252</v>
       </c>
       <c r="M37" s="12">
@@ -3651,7 +4562,7 @@
         <v>3687.5</v>
       </c>
       <c r="O37" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>36.875</v>
       </c>
     </row>
@@ -3679,11 +4590,11 @@
         <v>1.5914999999999999</v>
       </c>
       <c r="K38" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>38.100000000000023</v>
       </c>
       <c r="L38" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>444.50000000000023</v>
       </c>
       <c r="M38" s="12">
@@ -3693,7 +4604,7 @@
         <v>3750</v>
       </c>
       <c r="O38" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>37.5</v>
       </c>
     </row>
@@ -3723,11 +4634,11 @@
         <v>1.5798000000000001</v>
       </c>
       <c r="K39" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>36.500000000000199</v>
       </c>
       <c r="L39" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>425.83333333333564</v>
       </c>
       <c r="M39" s="12">
@@ -3737,7 +4648,7 @@
         <v>2937.5</v>
       </c>
       <c r="O39" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>29.375</v>
       </c>
       <c r="P39" s="19">
@@ -3769,11 +4680,11 @@
         <v>1.5778000000000001</v>
       </c>
       <c r="K40" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>32.399999999999984</v>
       </c>
       <c r="L40" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>377.99999999999977</v>
       </c>
       <c r="M40" s="12">
@@ -3783,7 +4694,7 @@
         <v>2937.5</v>
       </c>
       <c r="O40" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>29.375</v>
       </c>
     </row>
@@ -3811,11 +4722,11 @@
         <v>1.5720000000000001</v>
       </c>
       <c r="K41" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>39.300000000000111</v>
       </c>
       <c r="L41" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>458.50000000000125</v>
       </c>
       <c r="M41" s="12">
@@ -3825,7 +4736,7 @@
         <v>3375</v>
       </c>
       <c r="O41" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>33.75</v>
       </c>
     </row>
@@ -3855,11 +4766,11 @@
         <v>1.5841000000000001</v>
       </c>
       <c r="K42" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>31.400000000000095</v>
       </c>
       <c r="L42" s="18">
-        <f t="shared" ref="L42:L50" si="10">(K42/30)*350</f>
+        <f t="shared" ref="L42:L50" si="7">(K42/30)*350</f>
         <v>366.33333333333439</v>
       </c>
       <c r="M42" s="12">
@@ -3869,7 +4780,7 @@
         <v>3312.5</v>
       </c>
       <c r="O42" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>33.125</v>
       </c>
       <c r="P42" s="19">
@@ -3901,11 +4812,11 @@
         <v>1.5886</v>
       </c>
       <c r="K43" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>39.60000000000008</v>
       </c>
       <c r="L43" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>462.00000000000097</v>
       </c>
       <c r="M43" s="12">
@@ -3915,7 +4826,7 @@
         <v>3525.0000000000005</v>
       </c>
       <c r="O43" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>35.250000000000007</v>
       </c>
     </row>
@@ -3943,11 +4854,11 @@
         <v>1.5827</v>
       </c>
       <c r="K44" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>30.200000000000003</v>
       </c>
       <c r="L44" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>352.33333333333337</v>
       </c>
       <c r="M44" s="12">
@@ -3957,7 +4868,7 @@
         <v>3093.75</v>
       </c>
       <c r="O44" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>30.9375</v>
       </c>
     </row>
@@ -3987,11 +4898,11 @@
         <v>1.6075999999999999</v>
       </c>
       <c r="K45" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>52.999999999999936</v>
       </c>
       <c r="L45" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>618.33333333333258</v>
       </c>
       <c r="M45" s="12">
@@ -4001,7 +4912,7 @@
         <v>3187.5</v>
       </c>
       <c r="O45" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>31.875</v>
       </c>
       <c r="P45" s="19">
@@ -4033,11 +4944,11 @@
         <v>1.5959000000000001</v>
       </c>
       <c r="K46" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>47.200000000000131</v>
       </c>
       <c r="L46" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>550.66666666666822</v>
       </c>
       <c r="M46" s="12">
@@ -4047,7 +4958,7 @@
         <v>2750</v>
       </c>
       <c r="O46" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>27.5</v>
       </c>
     </row>
@@ -4075,11 +4986,11 @@
         <v>1.6064000000000001</v>
       </c>
       <c r="K47" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>50.100000000000037</v>
       </c>
       <c r="L47" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>584.50000000000045</v>
       </c>
       <c r="M47" s="12">
@@ -4089,7 +5000,7 @@
         <v>2968.75</v>
       </c>
       <c r="O47" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>29.6875</v>
       </c>
     </row>
@@ -4119,11 +5030,11 @@
         <v>1.5662</v>
       </c>
       <c r="K48" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>40.399999999999991</v>
       </c>
       <c r="L48" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>471.33333333333326</v>
       </c>
       <c r="M48" s="12">
@@ -4133,7 +5044,7 @@
         <v>3687.5</v>
       </c>
       <c r="O48" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>36.875</v>
       </c>
       <c r="P48" s="19">
@@ -4165,11 +5076,11 @@
         <v>1.5914999999999999</v>
       </c>
       <c r="K49" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>43.699999999999847</v>
       </c>
       <c r="L49" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>509.8333333333315</v>
       </c>
       <c r="M49" s="12">
@@ -4179,7 +5090,7 @@
         <v>3506.2499999999995</v>
       </c>
       <c r="O49" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>35.062499999999993</v>
       </c>
     </row>
@@ -4207,11 +5118,11 @@
         <v>1.593</v>
       </c>
       <c r="K50" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>43.599999999999859</v>
       </c>
       <c r="L50" s="18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>508.66666666666504</v>
       </c>
       <c r="M50" s="12">
@@ -4221,7 +5132,7 @@
         <v>3300.0000000000005</v>
       </c>
       <c r="O50" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>33.000000000000007</v>
       </c>
     </row>
@@ -4352,7 +5263,7 @@
     <sortCondition ref="A27:A34"/>
     <sortCondition ref="C27:C34"/>
   </sortState>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -4365,10 +5276,1952 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" style="64" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="97" customWidth="1"/>
+    <col min="7" max="7" width="21.5" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" customWidth="1"/>
+    <col min="11" max="11" width="24" customWidth="1"/>
+    <col min="12" max="12" width="24.33203125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="89.83203125" customWidth="1"/>
+    <col min="14" max="14" width="31.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="66" customFormat="1" ht="42" customHeight="1">
+      <c r="A1" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="N1" s="65" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" hidden="1">
+      <c r="A2" s="33"/>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="89"/>
+      <c r="G2" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="H2" s="15">
+        <v>42833</v>
+      </c>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15">
+        <v>43186</v>
+      </c>
+      <c r="K2" s="11">
+        <v>17.5</v>
+      </c>
+      <c r="L2" s="13">
+        <f>K2*46</f>
+        <v>805</v>
+      </c>
+      <c r="M2" s="11"/>
+    </row>
+    <row r="3" spans="1:20" s="46" customFormat="1">
+      <c r="A3" s="59" t="s">
+        <v>341</v>
+      </c>
+      <c r="B3" s="43">
+        <v>2</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>246</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="90">
+        <v>2</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>261</v>
+      </c>
+      <c r="H3" s="78">
+        <v>42833</v>
+      </c>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78">
+        <v>43186</v>
+      </c>
+      <c r="K3" s="43">
+        <v>84</v>
+      </c>
+      <c r="L3" s="45">
+        <f>K3*46</f>
+        <v>3864</v>
+      </c>
+      <c r="M3" s="43"/>
+      <c r="N3" s="79"/>
+      <c r="P3" s="79"/>
+    </row>
+    <row r="4" spans="1:20" s="30" customFormat="1">
+      <c r="A4" s="58" t="s">
+        <v>341</v>
+      </c>
+      <c r="B4" s="27">
+        <v>3</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="F4" s="91">
+        <v>2</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="H4" s="32">
+        <v>42833</v>
+      </c>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32">
+        <v>43186</v>
+      </c>
+      <c r="K4" s="27">
+        <v>43.9</v>
+      </c>
+      <c r="L4" s="29">
+        <f>K4*46</f>
+        <v>2019.3999999999999</v>
+      </c>
+      <c r="M4" s="27"/>
+      <c r="N4" s="34"/>
+      <c r="P4" s="34"/>
+    </row>
+    <row r="5" spans="1:20" s="23" customFormat="1" hidden="1">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="89"/>
+      <c r="G5" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="H5" s="22">
+        <v>42833</v>
+      </c>
+      <c r="I5" s="22"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="N5" s="25"/>
+      <c r="O5"/>
+      <c r="P5" s="25"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+    </row>
+    <row r="6" spans="1:20" s="30" customFormat="1" hidden="1">
+      <c r="A6" s="58"/>
+      <c r="B6" s="27">
+        <v>5</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="F6" s="91">
+        <v>0</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="H6" s="32">
+        <v>42833</v>
+      </c>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32">
+        <v>43186</v>
+      </c>
+      <c r="K6" s="27">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="L6" s="29">
+        <f t="shared" ref="L6:L16" si="0">K6*46</f>
+        <v>1527.2</v>
+      </c>
+      <c r="M6" s="27"/>
+      <c r="N6" s="34"/>
+      <c r="P6" s="34"/>
+    </row>
+    <row r="7" spans="1:20" s="50" customFormat="1" hidden="1">
+      <c r="A7" s="63"/>
+      <c r="B7" s="47">
+        <v>6</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>250</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="90"/>
+      <c r="G7" s="47" t="s">
+        <v>261</v>
+      </c>
+      <c r="H7" s="44">
+        <v>42833</v>
+      </c>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44">
+        <v>43186</v>
+      </c>
+      <c r="K7" s="47">
+        <v>8.94</v>
+      </c>
+      <c r="L7" s="49">
+        <f t="shared" si="0"/>
+        <v>411.23999999999995</v>
+      </c>
+      <c r="M7" s="47"/>
+      <c r="N7" s="77"/>
+      <c r="P7" s="77"/>
+    </row>
+    <row r="8" spans="1:20" s="30" customFormat="1">
+      <c r="A8" s="58" t="s">
+        <v>341</v>
+      </c>
+      <c r="B8" s="27">
+        <v>7</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="F8" s="91">
+        <v>2</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="H8" s="32">
+        <v>42833</v>
+      </c>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32">
+        <v>43186</v>
+      </c>
+      <c r="K8" s="27">
+        <v>56</v>
+      </c>
+      <c r="L8" s="29">
+        <f t="shared" si="0"/>
+        <v>2576</v>
+      </c>
+      <c r="M8" s="27"/>
+      <c r="N8" s="34"/>
+      <c r="P8" s="34"/>
+    </row>
+    <row r="9" spans="1:20" ht="15" hidden="1" customHeight="1">
+      <c r="A9" s="33"/>
+      <c r="B9" s="11">
+        <v>8</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="89"/>
+      <c r="G9" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="H9" s="15">
+        <v>42833</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15">
+        <v>43186</v>
+      </c>
+      <c r="K9" s="11">
+        <v>18.3</v>
+      </c>
+      <c r="L9" s="13">
+        <f t="shared" si="0"/>
+        <v>841.80000000000007</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="25"/>
+      <c r="P9" s="25"/>
+    </row>
+    <row r="10" spans="1:20" s="30" customFormat="1">
+      <c r="A10" s="58"/>
+      <c r="B10" s="27">
+        <v>9</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="F10" s="91">
+        <v>2</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="H10" s="32">
+        <v>42833</v>
+      </c>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32">
+        <v>43186</v>
+      </c>
+      <c r="K10" s="27">
+        <v>24.2</v>
+      </c>
+      <c r="L10" s="29">
+        <f t="shared" si="0"/>
+        <v>1113.2</v>
+      </c>
+      <c r="M10" s="27"/>
+      <c r="N10" s="34"/>
+      <c r="P10" s="34"/>
+    </row>
+    <row r="11" spans="1:20" s="55" customFormat="1">
+      <c r="A11" s="60" t="s">
+        <v>341</v>
+      </c>
+      <c r="B11" s="51">
+        <v>10</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>264</v>
+      </c>
+      <c r="E11" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="92">
+        <v>2</v>
+      </c>
+      <c r="G11" s="51" t="s">
+        <v>261</v>
+      </c>
+      <c r="H11" s="56">
+        <v>42833</v>
+      </c>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56">
+        <v>43186</v>
+      </c>
+      <c r="K11" s="51">
+        <v>76</v>
+      </c>
+      <c r="L11" s="54">
+        <f t="shared" si="0"/>
+        <v>3496</v>
+      </c>
+      <c r="M11" s="51"/>
+      <c r="N11" s="80"/>
+      <c r="P11" s="80"/>
+    </row>
+    <row r="12" spans="1:20" s="55" customFormat="1">
+      <c r="A12" s="60" t="s">
+        <v>341</v>
+      </c>
+      <c r="B12" s="51">
+        <v>11</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>264</v>
+      </c>
+      <c r="E12" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="92">
+        <v>2</v>
+      </c>
+      <c r="G12" s="51" t="s">
+        <v>261</v>
+      </c>
+      <c r="H12" s="56">
+        <v>42833</v>
+      </c>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56">
+        <v>43186</v>
+      </c>
+      <c r="K12" s="51">
+        <v>51</v>
+      </c>
+      <c r="L12" s="54">
+        <f t="shared" si="0"/>
+        <v>2346</v>
+      </c>
+      <c r="M12" s="51"/>
+      <c r="N12" s="80"/>
+      <c r="P12" s="80"/>
+    </row>
+    <row r="13" spans="1:20" s="76" customFormat="1" hidden="1">
+      <c r="A13" s="72"/>
+      <c r="B13" s="73">
+        <v>12</v>
+      </c>
+      <c r="C13" s="74" t="s">
+        <v>238</v>
+      </c>
+      <c r="D13" s="73" t="s">
+        <v>264</v>
+      </c>
+      <c r="E13" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="92"/>
+      <c r="G13" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="H13" s="53">
+        <v>42833</v>
+      </c>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53">
+        <v>43186</v>
+      </c>
+      <c r="K13" s="73">
+        <v>7.08</v>
+      </c>
+      <c r="L13" s="75">
+        <f t="shared" si="0"/>
+        <v>325.68</v>
+      </c>
+      <c r="M13" s="73"/>
+      <c r="N13" s="82"/>
+      <c r="P13" s="82"/>
+    </row>
+    <row r="14" spans="1:20" s="55" customFormat="1">
+      <c r="A14" s="60" t="s">
+        <v>341</v>
+      </c>
+      <c r="B14" s="51">
+        <v>13</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>239</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>264</v>
+      </c>
+      <c r="E14" s="73" t="s">
+        <v>344</v>
+      </c>
+      <c r="F14" s="92">
+        <v>2</v>
+      </c>
+      <c r="G14" s="51" t="s">
+        <v>261</v>
+      </c>
+      <c r="H14" s="56">
+        <v>42833</v>
+      </c>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56">
+        <v>43186</v>
+      </c>
+      <c r="K14" s="51">
+        <v>34.6</v>
+      </c>
+      <c r="L14" s="54">
+        <f t="shared" si="0"/>
+        <v>1591.6000000000001</v>
+      </c>
+      <c r="M14" s="51"/>
+      <c r="N14" s="80"/>
+      <c r="P14" s="80"/>
+    </row>
+    <row r="15" spans="1:20" s="55" customFormat="1">
+      <c r="A15" s="60" t="s">
+        <v>341</v>
+      </c>
+      <c r="B15" s="51">
+        <v>14</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>264</v>
+      </c>
+      <c r="E15" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="92">
+        <v>3</v>
+      </c>
+      <c r="G15" s="51" t="s">
+        <v>261</v>
+      </c>
+      <c r="H15" s="56">
+        <v>42833</v>
+      </c>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56">
+        <v>43186</v>
+      </c>
+      <c r="K15" s="51">
+        <v>49.6</v>
+      </c>
+      <c r="L15" s="54">
+        <f t="shared" si="0"/>
+        <v>2281.6</v>
+      </c>
+      <c r="M15" s="51"/>
+      <c r="N15" s="80"/>
+      <c r="P15" s="80"/>
+    </row>
+    <row r="16" spans="1:20" s="55" customFormat="1">
+      <c r="A16" s="60" t="s">
+        <v>341</v>
+      </c>
+      <c r="B16" s="51">
+        <v>15</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>241</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>264</v>
+      </c>
+      <c r="E16" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="92">
+        <v>3</v>
+      </c>
+      <c r="G16" s="51" t="s">
+        <v>261</v>
+      </c>
+      <c r="H16" s="56">
+        <v>42833</v>
+      </c>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56">
+        <v>43186</v>
+      </c>
+      <c r="K16" s="51">
+        <v>57</v>
+      </c>
+      <c r="L16" s="54">
+        <f t="shared" si="0"/>
+        <v>2622</v>
+      </c>
+      <c r="M16" s="51"/>
+      <c r="N16" s="80"/>
+      <c r="P16" s="80"/>
+    </row>
+    <row r="17" spans="1:20" s="88" customFormat="1" hidden="1">
+      <c r="A17" s="81"/>
+      <c r="B17" s="81" t="s">
+        <v>277</v>
+      </c>
+      <c r="C17" s="84" t="s">
+        <v>242</v>
+      </c>
+      <c r="D17" s="85" t="s">
+        <v>264</v>
+      </c>
+      <c r="E17" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="92"/>
+      <c r="G17" s="85" t="s">
+        <v>261</v>
+      </c>
+      <c r="H17" s="86">
+        <v>42833</v>
+      </c>
+      <c r="I17" s="86"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="85" t="s">
+        <v>275</v>
+      </c>
+      <c r="N17" s="82"/>
+      <c r="O17" s="76"/>
+      <c r="P17" s="82"/>
+      <c r="Q17" s="76"/>
+      <c r="R17" s="76"/>
+      <c r="S17" s="76"/>
+      <c r="T17" s="76"/>
+    </row>
+    <row r="18" spans="1:20" s="76" customFormat="1" hidden="1">
+      <c r="A18" s="72"/>
+      <c r="B18" s="73">
+        <v>17</v>
+      </c>
+      <c r="C18" s="74" t="s">
+        <v>243</v>
+      </c>
+      <c r="D18" s="73" t="s">
+        <v>264</v>
+      </c>
+      <c r="E18" s="73" t="s">
+        <v>343</v>
+      </c>
+      <c r="F18" s="92"/>
+      <c r="G18" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="H18" s="53">
+        <v>42833</v>
+      </c>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53">
+        <v>43186</v>
+      </c>
+      <c r="K18" s="73">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="L18" s="75">
+        <f>K18*46</f>
+        <v>901.6</v>
+      </c>
+      <c r="M18" s="73"/>
+      <c r="N18" s="82"/>
+      <c r="P18" s="82"/>
+    </row>
+    <row r="19" spans="1:20" s="76" customFormat="1" hidden="1">
+      <c r="A19" s="72"/>
+      <c r="B19" s="73">
+        <v>18</v>
+      </c>
+      <c r="C19" s="74" t="s">
+        <v>244</v>
+      </c>
+      <c r="D19" s="73" t="s">
+        <v>264</v>
+      </c>
+      <c r="E19" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="92"/>
+      <c r="G19" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="H19" s="53">
+        <v>42833</v>
+      </c>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53">
+        <v>43186</v>
+      </c>
+      <c r="K19" s="73">
+        <v>18.3</v>
+      </c>
+      <c r="L19" s="75">
+        <f>K19*46</f>
+        <v>841.80000000000007</v>
+      </c>
+      <c r="M19" s="73"/>
+      <c r="N19" s="82"/>
+      <c r="P19" s="82"/>
+    </row>
+    <row r="20" spans="1:20" s="76" customFormat="1">
+      <c r="A20" s="72" t="s">
+        <v>341</v>
+      </c>
+      <c r="B20" s="81" t="s">
+        <v>277</v>
+      </c>
+      <c r="C20" s="74" t="s">
+        <v>345</v>
+      </c>
+      <c r="D20" s="73" t="s">
+        <v>263</v>
+      </c>
+      <c r="E20" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="92">
+        <v>3</v>
+      </c>
+      <c r="G20" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="H20" s="53">
+        <v>42833</v>
+      </c>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53" t="s">
+        <v>347</v>
+      </c>
+      <c r="K20" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="L20" s="83" t="s">
+        <v>74</v>
+      </c>
+      <c r="M20" s="73"/>
+      <c r="N20" s="82"/>
+      <c r="P20" s="82"/>
+    </row>
+    <row r="21" spans="1:20" s="76" customFormat="1">
+      <c r="A21" s="72"/>
+      <c r="B21" s="81" t="s">
+        <v>277</v>
+      </c>
+      <c r="C21" s="74" t="s">
+        <v>346</v>
+      </c>
+      <c r="D21" s="73" t="s">
+        <v>263</v>
+      </c>
+      <c r="E21" s="73" t="s">
+        <v>343</v>
+      </c>
+      <c r="F21" s="92">
+        <v>2</v>
+      </c>
+      <c r="G21" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="H21" s="53">
+        <v>42833</v>
+      </c>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53" t="s">
+        <v>347</v>
+      </c>
+      <c r="K21" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="L21" s="83" t="s">
+        <v>74</v>
+      </c>
+      <c r="M21" s="73"/>
+      <c r="N21" s="82"/>
+      <c r="P21" s="82"/>
+    </row>
+    <row r="22" spans="1:20" s="55" customFormat="1">
+      <c r="A22" s="60" t="s">
+        <v>341</v>
+      </c>
+      <c r="B22" s="51">
+        <v>19</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>254</v>
+      </c>
+      <c r="D22" s="52" t="s">
+        <v>263</v>
+      </c>
+      <c r="E22" s="73" t="s">
+        <v>344</v>
+      </c>
+      <c r="F22" s="92">
+        <v>2</v>
+      </c>
+      <c r="G22" s="51" t="s">
+        <v>261</v>
+      </c>
+      <c r="H22" s="56">
+        <v>42833</v>
+      </c>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56">
+        <v>43186</v>
+      </c>
+      <c r="K22" s="51">
+        <v>63</v>
+      </c>
+      <c r="L22" s="54">
+        <f>K22*46</f>
+        <v>2898</v>
+      </c>
+      <c r="M22" s="51"/>
+      <c r="N22" s="80"/>
+      <c r="P22" s="80"/>
+    </row>
+    <row r="23" spans="1:20" s="76" customFormat="1" hidden="1">
+      <c r="A23" s="72"/>
+      <c r="B23" s="73">
+        <v>20</v>
+      </c>
+      <c r="C23" s="74" t="s">
+        <v>255</v>
+      </c>
+      <c r="D23" s="74" t="s">
+        <v>263</v>
+      </c>
+      <c r="E23" s="73" t="s">
+        <v>343</v>
+      </c>
+      <c r="F23" s="92"/>
+      <c r="G23" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="H23" s="53">
+        <v>42833</v>
+      </c>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53">
+        <v>43186</v>
+      </c>
+      <c r="K23" s="73">
+        <v>11.3</v>
+      </c>
+      <c r="L23" s="75">
+        <f>K23*46</f>
+        <v>519.80000000000007</v>
+      </c>
+      <c r="M23" s="73"/>
+      <c r="N23" s="82"/>
+      <c r="P23" s="82"/>
+    </row>
+    <row r="24" spans="1:20" s="76" customFormat="1" hidden="1">
+      <c r="A24" s="72"/>
+      <c r="B24" s="72" t="s">
+        <v>277</v>
+      </c>
+      <c r="C24" s="74" t="s">
+        <v>348</v>
+      </c>
+      <c r="D24" s="74" t="s">
+        <v>263</v>
+      </c>
+      <c r="E24" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="92">
+        <v>3</v>
+      </c>
+      <c r="G24" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="H24" s="53">
+        <v>42833</v>
+      </c>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53" t="s">
+        <v>347</v>
+      </c>
+      <c r="K24" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="L24" s="83" t="s">
+        <v>74</v>
+      </c>
+      <c r="M24" s="73"/>
+      <c r="N24" s="82"/>
+      <c r="P24" s="82"/>
+    </row>
+    <row r="25" spans="1:20" s="55" customFormat="1">
+      <c r="A25" s="60" t="s">
+        <v>341</v>
+      </c>
+      <c r="B25" s="51">
+        <v>21</v>
+      </c>
+      <c r="C25" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="D25" s="52" t="s">
+        <v>263</v>
+      </c>
+      <c r="E25" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="92">
+        <v>2</v>
+      </c>
+      <c r="G25" s="51" t="s">
+        <v>261</v>
+      </c>
+      <c r="H25" s="56">
+        <v>42833</v>
+      </c>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56">
+        <v>43186</v>
+      </c>
+      <c r="K25" s="51">
+        <v>46.5</v>
+      </c>
+      <c r="L25" s="54">
+        <f>K25*46</f>
+        <v>2139</v>
+      </c>
+      <c r="M25" s="51"/>
+      <c r="N25" s="80"/>
+      <c r="P25" s="80"/>
+    </row>
+    <row r="26" spans="1:20" s="76" customFormat="1" hidden="1">
+      <c r="A26" s="72"/>
+      <c r="B26" s="73">
+        <v>22</v>
+      </c>
+      <c r="C26" s="74" t="s">
+        <v>257</v>
+      </c>
+      <c r="D26" s="74" t="s">
+        <v>263</v>
+      </c>
+      <c r="E26" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="92"/>
+      <c r="G26" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="H26" s="53">
+        <v>42833</v>
+      </c>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="85" t="s">
+        <v>275</v>
+      </c>
+      <c r="N26" s="82"/>
+      <c r="P26" s="82"/>
+    </row>
+    <row r="27" spans="1:20" s="55" customFormat="1">
+      <c r="A27" s="60" t="s">
+        <v>341</v>
+      </c>
+      <c r="B27" s="51">
+        <v>23</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="D27" s="52" t="s">
+        <v>263</v>
+      </c>
+      <c r="E27" s="73" t="s">
+        <v>343</v>
+      </c>
+      <c r="F27" s="92">
+        <v>2</v>
+      </c>
+      <c r="G27" s="51" t="s">
+        <v>261</v>
+      </c>
+      <c r="H27" s="56">
+        <v>42833</v>
+      </c>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56">
+        <v>43186</v>
+      </c>
+      <c r="K27" s="51">
+        <v>28.6</v>
+      </c>
+      <c r="L27" s="54">
+        <f>K27*46</f>
+        <v>1315.6000000000001</v>
+      </c>
+      <c r="M27" s="51"/>
+      <c r="N27" s="80"/>
+      <c r="P27" s="80"/>
+    </row>
+    <row r="28" spans="1:20" s="55" customFormat="1">
+      <c r="A28" s="60" t="s">
+        <v>341</v>
+      </c>
+      <c r="B28" s="51">
+        <v>24</v>
+      </c>
+      <c r="C28" s="52" t="s">
+        <v>259</v>
+      </c>
+      <c r="D28" s="52" t="s">
+        <v>263</v>
+      </c>
+      <c r="E28" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="92">
+        <v>2</v>
+      </c>
+      <c r="G28" s="51" t="s">
+        <v>261</v>
+      </c>
+      <c r="H28" s="56">
+        <v>42833</v>
+      </c>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56">
+        <v>43186</v>
+      </c>
+      <c r="K28" s="51">
+        <v>47</v>
+      </c>
+      <c r="L28" s="54">
+        <f>K28*46</f>
+        <v>2162</v>
+      </c>
+      <c r="M28" s="51"/>
+      <c r="N28" s="80"/>
+      <c r="P28" s="80"/>
+    </row>
+    <row r="29" spans="1:20" s="105" customFormat="1" hidden="1">
+      <c r="A29" s="99"/>
+      <c r="B29" s="100"/>
+      <c r="C29" s="101" t="s">
+        <v>265</v>
+      </c>
+      <c r="D29" s="101" t="s">
+        <v>264</v>
+      </c>
+      <c r="E29" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="90">
+        <v>3</v>
+      </c>
+      <c r="G29" s="100" t="s">
+        <v>261</v>
+      </c>
+      <c r="H29" s="102">
+        <v>42833</v>
+      </c>
+      <c r="I29" s="102"/>
+      <c r="J29" s="44" t="s">
+        <v>347</v>
+      </c>
+      <c r="K29" s="44"/>
+      <c r="L29" s="106" t="s">
+        <v>74</v>
+      </c>
+      <c r="M29" s="100" t="s">
+        <v>276</v>
+      </c>
+      <c r="N29" s="77"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="77"/>
+      <c r="Q29" s="50"/>
+      <c r="R29" s="50"/>
+      <c r="S29" s="50"/>
+      <c r="T29" s="50"/>
+    </row>
+    <row r="30" spans="1:20" s="105" customFormat="1">
+      <c r="A30" s="107" t="s">
+        <v>341</v>
+      </c>
+      <c r="B30" s="100"/>
+      <c r="C30" s="101" t="s">
+        <v>266</v>
+      </c>
+      <c r="D30" s="101" t="s">
+        <v>264</v>
+      </c>
+      <c r="E30" s="47" t="s">
+        <v>343</v>
+      </c>
+      <c r="F30" s="90">
+        <v>2</v>
+      </c>
+      <c r="G30" s="100" t="s">
+        <v>261</v>
+      </c>
+      <c r="H30" s="102">
+        <v>42833</v>
+      </c>
+      <c r="I30" s="102"/>
+      <c r="J30" s="44" t="s">
+        <v>347</v>
+      </c>
+      <c r="K30" s="44"/>
+      <c r="L30" s="106" t="s">
+        <v>74</v>
+      </c>
+      <c r="M30" s="100" t="s">
+        <v>276</v>
+      </c>
+      <c r="N30" s="77"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="77"/>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="50"/>
+      <c r="T30" s="50"/>
+    </row>
+    <row r="31" spans="1:20" s="30" customFormat="1" hidden="1">
+      <c r="A31" s="58"/>
+      <c r="B31" s="27">
+        <v>27</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="F31" s="91">
+        <v>0</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="H31" s="32">
+        <v>42833</v>
+      </c>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32">
+        <v>43186</v>
+      </c>
+      <c r="K31" s="27">
+        <v>35.4</v>
+      </c>
+      <c r="L31" s="29">
+        <f>K31*46</f>
+        <v>1628.3999999999999</v>
+      </c>
+      <c r="M31" s="27"/>
+      <c r="N31" s="34"/>
+      <c r="P31" s="34"/>
+    </row>
+    <row r="32" spans="1:20" s="46" customFormat="1">
+      <c r="A32" s="59"/>
+      <c r="B32" s="43">
+        <v>28</v>
+      </c>
+      <c r="C32" s="98" t="s">
+        <v>268</v>
+      </c>
+      <c r="D32" s="98" t="s">
+        <v>264</v>
+      </c>
+      <c r="E32" s="47" t="s">
+        <v>344</v>
+      </c>
+      <c r="F32" s="90">
+        <v>3</v>
+      </c>
+      <c r="G32" s="43" t="s">
+        <v>261</v>
+      </c>
+      <c r="H32" s="78">
+        <v>42833</v>
+      </c>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78">
+        <v>43186</v>
+      </c>
+      <c r="K32" s="43">
+        <v>83</v>
+      </c>
+      <c r="L32" s="45">
+        <f>K32*46</f>
+        <v>3818</v>
+      </c>
+      <c r="M32" s="43"/>
+      <c r="N32" s="79"/>
+      <c r="P32" s="79"/>
+    </row>
+    <row r="33" spans="1:13" s="46" customFormat="1">
+      <c r="A33" s="59" t="s">
+        <v>341</v>
+      </c>
+      <c r="B33" s="43">
+        <v>29</v>
+      </c>
+      <c r="C33" s="98" t="s">
+        <v>269</v>
+      </c>
+      <c r="D33" s="98" t="s">
+        <v>264</v>
+      </c>
+      <c r="E33" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="90">
+        <v>2</v>
+      </c>
+      <c r="G33" s="43" t="s">
+        <v>261</v>
+      </c>
+      <c r="H33" s="78">
+        <v>42833</v>
+      </c>
+      <c r="I33" s="78"/>
+      <c r="J33" s="78">
+        <v>43186</v>
+      </c>
+      <c r="K33" s="43">
+        <v>69</v>
+      </c>
+      <c r="L33" s="45">
+        <f>K33*46</f>
+        <v>3174</v>
+      </c>
+      <c r="M33" s="43"/>
+    </row>
+    <row r="34" spans="1:13" s="88" customFormat="1" hidden="1">
+      <c r="A34" s="81"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="84" t="s">
+        <v>270</v>
+      </c>
+      <c r="D34" s="84" t="s">
+        <v>264</v>
+      </c>
+      <c r="E34" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="92"/>
+      <c r="G34" s="85" t="s">
+        <v>261</v>
+      </c>
+      <c r="H34" s="86">
+        <v>42833</v>
+      </c>
+      <c r="I34" s="86"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="87"/>
+      <c r="M34" s="85" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="105" customFormat="1">
+      <c r="A35" s="99"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="101" t="s">
+        <v>271</v>
+      </c>
+      <c r="D35" s="101" t="s">
+        <v>264</v>
+      </c>
+      <c r="E35" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="90">
+        <v>3</v>
+      </c>
+      <c r="G35" s="100" t="s">
+        <v>261</v>
+      </c>
+      <c r="H35" s="102">
+        <v>42833</v>
+      </c>
+      <c r="I35" s="102"/>
+      <c r="J35" s="103" t="s">
+        <v>347</v>
+      </c>
+      <c r="K35" s="103"/>
+      <c r="L35" s="104"/>
+      <c r="M35" s="100" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" s="76" customFormat="1" hidden="1">
+      <c r="A36" s="72"/>
+      <c r="B36" s="73">
+        <v>32</v>
+      </c>
+      <c r="C36" s="74" t="s">
+        <v>272</v>
+      </c>
+      <c r="D36" s="74" t="s">
+        <v>264</v>
+      </c>
+      <c r="E36" s="73" t="s">
+        <v>343</v>
+      </c>
+      <c r="F36" s="92"/>
+      <c r="G36" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="H36" s="53">
+        <v>42833</v>
+      </c>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53">
+        <v>43186</v>
+      </c>
+      <c r="K36" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="L36" s="75" t="e">
+        <f>K36*46</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M36" s="73"/>
+    </row>
+    <row r="37" spans="1:13" s="46" customFormat="1">
+      <c r="A37" s="59" t="s">
+        <v>341</v>
+      </c>
+      <c r="B37" s="43">
+        <v>33</v>
+      </c>
+      <c r="C37" s="98" t="s">
+        <v>273</v>
+      </c>
+      <c r="D37" s="98" t="s">
+        <v>264</v>
+      </c>
+      <c r="E37" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="90">
+        <v>2</v>
+      </c>
+      <c r="G37" s="43" t="s">
+        <v>261</v>
+      </c>
+      <c r="H37" s="78">
+        <v>42833</v>
+      </c>
+      <c r="I37" s="78"/>
+      <c r="J37" s="78">
+        <v>43186</v>
+      </c>
+      <c r="K37" s="43">
+        <v>47.6</v>
+      </c>
+      <c r="L37" s="45">
+        <f>K37*46</f>
+        <v>2189.6</v>
+      </c>
+      <c r="M37" s="43"/>
+    </row>
+    <row r="38" spans="1:13" s="55" customFormat="1">
+      <c r="A38" s="60" t="s">
+        <v>341</v>
+      </c>
+      <c r="B38" s="51">
+        <v>34</v>
+      </c>
+      <c r="C38" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="D38" s="52" t="s">
+        <v>278</v>
+      </c>
+      <c r="E38" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" s="93"/>
+      <c r="G38" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="H38" s="56">
+        <v>42905</v>
+      </c>
+      <c r="I38" s="51" t="s">
+        <v>352</v>
+      </c>
+      <c r="J38" s="53">
+        <v>43189</v>
+      </c>
+      <c r="K38" s="51">
+        <v>61.2</v>
+      </c>
+      <c r="L38" s="54">
+        <f>K38*(20-1)</f>
+        <v>1162.8</v>
+      </c>
+      <c r="M38" s="51" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" s="55" customFormat="1">
+      <c r="A39" s="60" t="s">
+        <v>341</v>
+      </c>
+      <c r="B39" s="51">
+        <v>35</v>
+      </c>
+      <c r="C39" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="D39" s="52" t="s">
+        <v>278</v>
+      </c>
+      <c r="E39" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39" s="93"/>
+      <c r="G39" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="H39" s="56">
+        <v>42878</v>
+      </c>
+      <c r="I39" s="56" t="s">
+        <v>349</v>
+      </c>
+      <c r="J39" s="53">
+        <v>43189</v>
+      </c>
+      <c r="K39" s="51">
+        <v>71</v>
+      </c>
+      <c r="L39" s="54">
+        <f>K39*(20-1)</f>
+        <v>1349</v>
+      </c>
+      <c r="M39" s="51" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="38" customFormat="1" hidden="1">
+      <c r="A40" s="61"/>
+      <c r="B40" s="35">
+        <v>36</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="E40" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40" s="94"/>
+      <c r="G40" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="H40" s="57">
+        <v>42891</v>
+      </c>
+      <c r="I40" s="35" t="s">
+        <v>349</v>
+      </c>
+      <c r="J40" s="36">
+        <v>43189</v>
+      </c>
+      <c r="K40" s="35" t="s">
+        <v>339</v>
+      </c>
+      <c r="L40" s="37"/>
+      <c r="M40" s="35" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" s="55" customFormat="1">
+      <c r="A41" s="60" t="s">
+        <v>341</v>
+      </c>
+      <c r="B41" s="51">
+        <v>37</v>
+      </c>
+      <c r="C41" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="D41" s="52" t="s">
+        <v>278</v>
+      </c>
+      <c r="E41" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41" s="93"/>
+      <c r="G41" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="H41" s="56">
+        <v>42901</v>
+      </c>
+      <c r="I41" s="51" t="s">
+        <v>349</v>
+      </c>
+      <c r="J41" s="53">
+        <v>43189</v>
+      </c>
+      <c r="K41" s="51">
+        <v>122</v>
+      </c>
+      <c r="L41" s="54">
+        <f>K41*(20-1)</f>
+        <v>2318</v>
+      </c>
+      <c r="M41" s="51" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" s="42" customFormat="1" hidden="1">
+      <c r="A42" s="62"/>
+      <c r="B42" s="39">
+        <v>38</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="D42" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="E42" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" s="95"/>
+      <c r="G42" s="39" t="s">
+        <v>279</v>
+      </c>
+      <c r="H42" s="36">
+        <v>42889</v>
+      </c>
+      <c r="I42" s="39" t="s">
+        <v>349</v>
+      </c>
+      <c r="J42" s="36">
+        <v>43189</v>
+      </c>
+      <c r="K42" s="39">
+        <v>7.12</v>
+      </c>
+      <c r="L42" s="41">
+        <f>K42*(20-1)</f>
+        <v>135.28</v>
+      </c>
+      <c r="M42" s="39"/>
+    </row>
+    <row r="43" spans="1:13" s="71" customFormat="1">
+      <c r="A43" s="67" t="s">
+        <v>341</v>
+      </c>
+      <c r="B43" s="68">
+        <v>39</v>
+      </c>
+      <c r="C43" s="68" t="s">
+        <v>150</v>
+      </c>
+      <c r="D43" s="68" t="s">
+        <v>278</v>
+      </c>
+      <c r="E43" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43" s="96"/>
+      <c r="G43" s="68" t="s">
+        <v>279</v>
+      </c>
+      <c r="H43" s="69">
+        <v>42892</v>
+      </c>
+      <c r="I43" s="68" t="s">
+        <v>349</v>
+      </c>
+      <c r="J43" s="69">
+        <v>43189</v>
+      </c>
+      <c r="K43" s="68" t="s">
+        <v>340</v>
+      </c>
+      <c r="L43" s="70"/>
+      <c r="M43" s="68"/>
+    </row>
+    <row r="44" spans="1:13" s="38" customFormat="1" hidden="1">
+      <c r="A44" s="61"/>
+      <c r="B44" s="35">
+        <v>40</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="E44" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="F44" s="94"/>
+      <c r="G44" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="36">
+        <v>43189</v>
+      </c>
+      <c r="K44" s="35" t="s">
+        <v>339</v>
+      </c>
+      <c r="L44" s="37"/>
+      <c r="M44" s="35"/>
+    </row>
+    <row r="45" spans="1:13" s="55" customFormat="1">
+      <c r="A45" s="60" t="s">
+        <v>341</v>
+      </c>
+      <c r="B45" s="51">
+        <v>41</v>
+      </c>
+      <c r="C45" s="52" t="s">
+        <v>281</v>
+      </c>
+      <c r="D45" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="E45" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="F45" s="93"/>
+      <c r="G45" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="H45" s="56">
+        <v>42876</v>
+      </c>
+      <c r="I45" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="J45" s="53">
+        <v>43189</v>
+      </c>
+      <c r="K45" s="51">
+        <v>72.2</v>
+      </c>
+      <c r="L45" s="54">
+        <f>K45*(20-1)</f>
+        <v>1371.8</v>
+      </c>
+      <c r="M45" s="51" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" s="38" customFormat="1" hidden="1">
+      <c r="A46" s="61"/>
+      <c r="B46" s="35">
+        <v>42</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="E46" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="F46" s="94"/>
+      <c r="G46" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="36">
+        <v>43189</v>
+      </c>
+      <c r="K46" s="35" t="s">
+        <v>339</v>
+      </c>
+      <c r="L46" s="37"/>
+      <c r="M46" s="35" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" s="50" customFormat="1" hidden="1">
+      <c r="A47" s="63"/>
+      <c r="B47" s="47">
+        <v>43</v>
+      </c>
+      <c r="C47" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="D47" s="48" t="s">
+        <v>280</v>
+      </c>
+      <c r="E47" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F47" s="90"/>
+      <c r="G47" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="H47" s="44">
+        <v>42878</v>
+      </c>
+      <c r="I47" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="J47" s="44">
+        <v>43189</v>
+      </c>
+      <c r="K47" s="47" t="s">
+        <v>340</v>
+      </c>
+      <c r="L47" s="49"/>
+      <c r="M47" s="47"/>
+    </row>
+    <row r="48" spans="1:13" s="55" customFormat="1">
+      <c r="A48" s="60" t="s">
+        <v>341</v>
+      </c>
+      <c r="B48" s="51">
+        <v>44</v>
+      </c>
+      <c r="C48" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="D48" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="E48" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="F48" s="93"/>
+      <c r="G48" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="H48" s="56">
+        <v>42886</v>
+      </c>
+      <c r="I48" s="51" t="s">
+        <v>351</v>
+      </c>
+      <c r="J48" s="56">
+        <v>43189</v>
+      </c>
+      <c r="K48" s="51" t="s">
+        <v>340</v>
+      </c>
+      <c r="L48" s="54"/>
+      <c r="M48" s="51"/>
+    </row>
+    <row r="49" spans="1:13" s="55" customFormat="1">
+      <c r="A49" s="60" t="s">
+        <v>341</v>
+      </c>
+      <c r="B49" s="51">
+        <v>45</v>
+      </c>
+      <c r="C49" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="E49" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="F49" s="93"/>
+      <c r="G49" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="H49" s="56">
+        <v>42910</v>
+      </c>
+      <c r="I49" s="51" t="s">
+        <v>351</v>
+      </c>
+      <c r="J49" s="56">
+        <v>43189</v>
+      </c>
+      <c r="K49" s="51" t="s">
+        <v>340</v>
+      </c>
+      <c r="L49" s="54"/>
+      <c r="M49" s="51"/>
+    </row>
+    <row r="50" spans="1:13" s="50" customFormat="1" hidden="1">
+      <c r="A50" s="63"/>
+      <c r="B50" s="47">
+        <v>46</v>
+      </c>
+      <c r="C50" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="D50" s="48" t="s">
+        <v>280</v>
+      </c>
+      <c r="E50" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F50" s="90"/>
+      <c r="G50" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="H50" s="44">
+        <v>42881</v>
+      </c>
+      <c r="I50" s="47" t="s">
+        <v>350</v>
+      </c>
+      <c r="J50" s="44">
+        <v>43189</v>
+      </c>
+      <c r="K50" s="47">
+        <v>88.8</v>
+      </c>
+      <c r="L50" s="49">
+        <f>K50*(20-1)</f>
+        <v>1687.2</v>
+      </c>
+      <c r="M50" s="47"/>
+    </row>
+    <row r="51" spans="1:13" s="55" customFormat="1">
+      <c r="A51" s="60" t="s">
+        <v>341</v>
+      </c>
+      <c r="B51" s="51">
+        <v>47</v>
+      </c>
+      <c r="C51" s="52" t="s">
+        <v>353</v>
+      </c>
+      <c r="D51" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="E51" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="F51" s="93"/>
+      <c r="G51" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="H51" s="56">
+        <v>42882</v>
+      </c>
+      <c r="I51" s="51" t="s">
+        <v>350</v>
+      </c>
+      <c r="J51" s="53">
+        <v>43189</v>
+      </c>
+      <c r="K51" s="51">
+        <v>194</v>
+      </c>
+      <c r="L51" s="54">
+        <f>K51*(20-1)</f>
+        <v>3686</v>
+      </c>
+      <c r="M51" s="51" t="s">
+        <v>284</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="38" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="37" max="16383" man="1"/>
+  </rowBreaks>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="12" max="1048575" man="1"/>
+  </colBreaks>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="80"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4377,7 +7230,7 @@
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="60">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="60">
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
@@ -4403,7 +7256,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1">
+    <row r="2" spans="1:9" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -4417,29 +7270,29 @@
         <v>200</v>
       </c>
       <c r="E2" s="1">
-        <f>(B2+C2)*D2</f>
+        <f t="shared" ref="E2:E9" si="0">(B2+C2)*D2</f>
         <v>2000</v>
       </c>
       <c r="F2">
-        <f>1/200</f>
+        <f t="shared" ref="F2:F9" si="1">1/200</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G2">
-        <f>199/200</f>
+        <f t="shared" ref="G2:G9" si="2">199/200</f>
         <v>0.995</v>
       </c>
       <c r="H2" s="1">
-        <f>E2*F2</f>
+        <f t="shared" ref="H2:H9" si="3">E2*F2</f>
         <v>10</v>
       </c>
       <c r="I2" s="1">
-        <f>E2*G2</f>
+        <f t="shared" ref="I2:I9" si="4">E2*G2</f>
         <v>1990</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -4451,29 +7304,29 @@
         <v>200</v>
       </c>
       <c r="E3" s="1">
-        <f>(B3+C3)*D3</f>
+        <f t="shared" si="0"/>
         <v>1200</v>
       </c>
       <c r="F3">
-        <f>1/200</f>
+        <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G3">
-        <f>199/200</f>
+        <f t="shared" si="2"/>
         <v>0.995</v>
       </c>
       <c r="H3" s="1">
-        <f>E3*F3</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="I3" s="1">
-        <f>E3*G3</f>
+        <f t="shared" si="4"/>
         <v>1194</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -4485,29 +7338,29 @@
         <v>200</v>
       </c>
       <c r="E4" s="1">
-        <f>(B4+C4)*D4</f>
+        <f t="shared" si="0"/>
         <v>1400</v>
       </c>
       <c r="F4">
-        <f>1/200</f>
+        <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G4">
-        <f>199/200</f>
+        <f t="shared" si="2"/>
         <v>0.995</v>
       </c>
       <c r="H4" s="1">
-        <f>E4*F4</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="I4" s="1">
-        <f>E4*G4</f>
+        <f t="shared" si="4"/>
         <v>1393</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -4519,29 +7372,29 @@
         <v>200</v>
       </c>
       <c r="E5" s="1">
-        <f>(B5+C5)*D5</f>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="F5">
-        <f>1/200</f>
+        <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G5">
-        <f>199/200</f>
+        <f t="shared" si="2"/>
         <v>0.995</v>
       </c>
       <c r="H5" s="1">
-        <f>E5*F5</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="I5" s="1">
-        <f>E5*G5</f>
+        <f t="shared" si="4"/>
         <v>1990</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B6">
         <v>24</v>
@@ -4553,29 +7406,29 @@
         <v>200</v>
       </c>
       <c r="E6" s="1">
-        <f>(B6+C6)*D6</f>
+        <f t="shared" si="0"/>
         <v>5200</v>
       </c>
       <c r="F6">
-        <f>1/200</f>
+        <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G6">
-        <f>199/200</f>
+        <f t="shared" si="2"/>
         <v>0.995</v>
       </c>
       <c r="H6" s="1">
-        <f>E6*F6</f>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="I6" s="1">
-        <f>E6*G6</f>
+        <f t="shared" si="4"/>
         <v>5174</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B7">
         <v>26</v>
@@ -4587,32 +7440,90 @@
         <v>200</v>
       </c>
       <c r="E7" s="1">
-        <f>(B7+C7)*D7</f>
+        <f t="shared" si="0"/>
         <v>5600</v>
       </c>
       <c r="F7">
-        <f>1/200</f>
+        <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G7">
-        <f>199/200</f>
+        <f t="shared" si="2"/>
         <v>0.995</v>
       </c>
       <c r="H7" s="1">
-        <f>E7*F7</f>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="I7" s="1">
-        <f>E7*G7</f>
+        <f t="shared" si="4"/>
         <v>5572</v>
       </c>
-      <c r="J7">
-        <f>190*2+(198*26)</f>
-        <v>5528</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="I9" s="1"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B8">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>200</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>3200</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>0.995</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="4"/>
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>200</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>0.995</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="4"/>
+        <v>199</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4625,7 +7536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S22"/>
   <sheetViews>
@@ -5391,7 +8302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S19"/>
   <sheetViews>
@@ -6097,12 +9008,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:K26"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7664,1132 +10575,3694 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:G48"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="21.5" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" customWidth="1"/>
-    <col min="9" max="9" width="91.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" style="25" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:19">
+      <c r="A1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="G1" s="11" t="s">
+      <c r="F1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" t="s">
+        <v>320</v>
+      </c>
+      <c r="K1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O1" t="s">
+        <v>94</v>
+      </c>
+      <c r="P1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R1" t="s">
+        <v>91</v>
+      </c>
+      <c r="S1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D2" s="4">
+        <v>43187.759814814817</v>
+      </c>
+      <c r="E2" s="25">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>175</v>
+      </c>
+      <c r="G2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2">
+        <v>17.5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J27" si="0">H2*46</f>
+        <v>805</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+      <c r="M2">
+        <v>65.209999999999994</v>
+      </c>
+      <c r="N2">
+        <v>1252.5899999999999</v>
+      </c>
+      <c r="P2" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>290</v>
+      </c>
+      <c r="S2">
+        <v>528.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D3" s="4">
+        <v>43187.760266203702</v>
+      </c>
+      <c r="E3" s="25">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>840</v>
+      </c>
+      <c r="G3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3">
+        <v>84</v>
+      </c>
+      <c r="I3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>3864</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>100</v>
+      </c>
+      <c r="M3">
+        <v>65.209999999999994</v>
+      </c>
+      <c r="N3">
+        <v>1252.5899999999999</v>
+      </c>
+      <c r="P3" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>290</v>
+      </c>
+      <c r="S3">
+        <v>1784.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C4" t="s">
+        <v>296</v>
+      </c>
+      <c r="D4" s="4">
+        <v>43187.760405092595</v>
+      </c>
+      <c r="E4" s="25">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>439</v>
+      </c>
+      <c r="G4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4">
+        <v>43.9</v>
+      </c>
+      <c r="I4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>2019.3999999999999</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>100</v>
+      </c>
+      <c r="M4">
+        <v>65.209999999999994</v>
+      </c>
+      <c r="N4">
+        <v>1252.5899999999999</v>
+      </c>
+      <c r="P4" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>290</v>
+      </c>
+      <c r="S4">
+        <v>1134.52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D5" s="4">
+        <v>43187.76054398148</v>
+      </c>
+      <c r="E5" s="25">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>332</v>
+      </c>
+      <c r="G5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>1527.2</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>100</v>
+      </c>
+      <c r="M5">
+        <v>65.209999999999994</v>
+      </c>
+      <c r="N5">
+        <v>1252.5899999999999</v>
+      </c>
+      <c r="P5" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>290</v>
+      </c>
+      <c r="S5">
+        <v>908.73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D6" s="4">
+        <v>43187.760671296295</v>
+      </c>
+      <c r="E6" s="25">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>89.4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6">
+        <v>8.94</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>411.23999999999995</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>100</v>
+      </c>
+      <c r="M6">
+        <v>65.209999999999994</v>
+      </c>
+      <c r="N6">
+        <v>1252.5899999999999</v>
+      </c>
+      <c r="P6" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>290</v>
+      </c>
+      <c r="S6">
+        <v>300.64999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" t="s">
+        <v>294</v>
+      </c>
+      <c r="B7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D7" s="4">
+        <v>43187.760821759257</v>
+      </c>
+      <c r="E7" s="25">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>560</v>
+      </c>
+      <c r="G7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7">
+        <v>56</v>
+      </c>
+      <c r="I7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>2576</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>100</v>
+      </c>
+      <c r="M7">
+        <v>65.209999999999994</v>
+      </c>
+      <c r="N7">
+        <v>1252.5899999999999</v>
+      </c>
+      <c r="P7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>290</v>
+      </c>
+      <c r="S7">
+        <v>1356.94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B8" t="s">
+        <v>293</v>
+      </c>
+      <c r="C8" t="s">
+        <v>300</v>
+      </c>
+      <c r="D8" s="4">
+        <v>43187.760960648149</v>
+      </c>
+      <c r="E8" s="25">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>183</v>
+      </c>
+      <c r="G8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8">
+        <v>18.3</v>
+      </c>
+      <c r="I8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>841.80000000000007</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>100</v>
+      </c>
+      <c r="M8">
+        <v>65.209999999999994</v>
+      </c>
+      <c r="N8">
+        <v>1252.5899999999999</v>
+      </c>
+      <c r="P8" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>290</v>
+      </c>
+      <c r="S8">
+        <v>549.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C9" t="s">
+        <v>301</v>
+      </c>
+      <c r="D9" s="4">
+        <v>43187.761099537034</v>
+      </c>
+      <c r="E9" s="25">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>242</v>
+      </c>
+      <c r="G9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9">
+        <v>24.2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>1113.2</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>100</v>
+      </c>
+      <c r="M9">
+        <v>65.209999999999994</v>
+      </c>
+      <c r="N9">
+        <v>1252.5899999999999</v>
+      </c>
+      <c r="P9" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>290</v>
+      </c>
+      <c r="S9">
+        <v>698.67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" t="s">
+        <v>294</v>
+      </c>
+      <c r="B10" t="s">
+        <v>293</v>
+      </c>
+      <c r="C10" t="s">
+        <v>302</v>
+      </c>
+      <c r="D10" s="4">
+        <v>43187.761250000003</v>
+      </c>
+      <c r="E10" s="25">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>760</v>
+      </c>
+      <c r="G10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10">
+        <v>76</v>
+      </c>
+      <c r="I10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>3496</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>100</v>
+      </c>
+      <c r="M10">
+        <v>65.209999999999994</v>
+      </c>
+      <c r="N10">
+        <v>1252.5899999999999</v>
+      </c>
+      <c r="P10" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>290</v>
+      </c>
+      <c r="S10">
+        <v>1685.36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" t="s">
+        <v>294</v>
+      </c>
+      <c r="B11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C11" t="s">
+        <v>303</v>
+      </c>
+      <c r="D11" s="4">
+        <v>43187.761377314811</v>
+      </c>
+      <c r="E11" s="25">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <v>510</v>
+      </c>
+      <c r="G11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11">
+        <v>51</v>
+      </c>
+      <c r="I11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>2346</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>100</v>
+      </c>
+      <c r="M11">
+        <v>65.209999999999994</v>
+      </c>
+      <c r="N11">
+        <v>1252.5899999999999</v>
+      </c>
+      <c r="P11" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>290</v>
+      </c>
+      <c r="S11">
+        <v>1266.1600000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B12" t="s">
+        <v>293</v>
+      </c>
+      <c r="C12" t="s">
+        <v>304</v>
+      </c>
+      <c r="D12" s="4">
+        <v>43187.76153935185</v>
+      </c>
+      <c r="E12" s="25">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>70.8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12">
+        <v>7.08</v>
+      </c>
+      <c r="I12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>325.68</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>100</v>
+      </c>
+      <c r="M12">
+        <v>65.209999999999994</v>
+      </c>
+      <c r="N12">
+        <v>1252.5899999999999</v>
+      </c>
+      <c r="P12" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>290</v>
+      </c>
+      <c r="S12">
+        <v>249.82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" t="s">
+        <v>294</v>
+      </c>
+      <c r="B13" t="s">
+        <v>293</v>
+      </c>
+      <c r="C13" t="s">
+        <v>305</v>
+      </c>
+      <c r="D13" s="4">
+        <v>43187.761678240742</v>
+      </c>
+      <c r="E13" s="25">
+        <v>13</v>
+      </c>
+      <c r="F13">
+        <v>346</v>
+      </c>
+      <c r="G13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13">
+        <v>34.6</v>
+      </c>
+      <c r="I13" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>1591.6000000000001</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>100</v>
+      </c>
+      <c r="M13">
+        <v>65.209999999999994</v>
+      </c>
+      <c r="N13">
+        <v>1252.5899999999999</v>
+      </c>
+      <c r="P13" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>290</v>
+      </c>
+      <c r="S13">
+        <v>940.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" t="s">
+        <v>294</v>
+      </c>
+      <c r="B14" t="s">
+        <v>293</v>
+      </c>
+      <c r="C14" t="s">
+        <v>306</v>
+      </c>
+      <c r="D14" s="4">
+        <v>43187.761817129627</v>
+      </c>
+      <c r="E14" s="25">
+        <v>14</v>
+      </c>
+      <c r="F14">
+        <v>496</v>
+      </c>
+      <c r="G14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14">
+        <v>49.6</v>
+      </c>
+      <c r="I14" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>2281.6</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>100</v>
+      </c>
+      <c r="M14">
+        <v>65.209999999999994</v>
+      </c>
+      <c r="N14">
+        <v>1252.5899999999999</v>
+      </c>
+      <c r="P14" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>290</v>
+      </c>
+      <c r="S14">
+        <v>1244.8900000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" t="s">
+        <v>294</v>
+      </c>
+      <c r="B15" t="s">
+        <v>293</v>
+      </c>
+      <c r="C15" t="s">
+        <v>307</v>
+      </c>
+      <c r="D15" s="4">
+        <v>43187.761944444443</v>
+      </c>
+      <c r="E15" s="25">
+        <v>15</v>
+      </c>
+      <c r="F15">
+        <v>570</v>
+      </c>
+      <c r="G15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15">
+        <v>57</v>
+      </c>
+      <c r="I15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>2622</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>100</v>
+      </c>
+      <c r="M15">
+        <v>65.209999999999994</v>
+      </c>
+      <c r="N15">
+        <v>1252.5899999999999</v>
+      </c>
+      <c r="P15" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>290</v>
+      </c>
+      <c r="S15">
+        <v>1375.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" t="s">
+        <v>294</v>
+      </c>
+      <c r="B16" t="s">
+        <v>293</v>
+      </c>
+      <c r="C16" t="s">
+        <v>308</v>
+      </c>
+      <c r="D16" s="4">
+        <v>43187.762083333335</v>
+      </c>
+      <c r="E16" s="25">
+        <v>17</v>
+      </c>
+      <c r="F16">
+        <v>196</v>
+      </c>
+      <c r="G16" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="I16" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>901.6</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>100</v>
+      </c>
+      <c r="M16">
+        <v>65.209999999999994</v>
+      </c>
+      <c r="N16">
+        <v>1252.5899999999999</v>
+      </c>
+      <c r="P16" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>290</v>
+      </c>
+      <c r="S16">
+        <v>583.87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B17" t="s">
+        <v>293</v>
+      </c>
+      <c r="C17" t="s">
+        <v>309</v>
+      </c>
+      <c r="D17" s="4">
+        <v>43187.762407407405</v>
+      </c>
+      <c r="E17" s="25">
+        <v>18</v>
+      </c>
+      <c r="F17">
+        <v>183</v>
+      </c>
+      <c r="G17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17">
+        <v>18.3</v>
+      </c>
+      <c r="I17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>841.80000000000007</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>100</v>
+      </c>
+      <c r="M17">
+        <v>65.209999999999994</v>
+      </c>
+      <c r="N17">
+        <v>1252.5899999999999</v>
+      </c>
+      <c r="P17" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>290</v>
+      </c>
+      <c r="S17">
+        <v>550.66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B18" t="s">
+        <v>293</v>
+      </c>
+      <c r="C18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D18" s="4">
+        <v>43187.762523148151</v>
+      </c>
+      <c r="E18" s="25">
+        <v>19</v>
+      </c>
+      <c r="F18">
+        <v>630</v>
+      </c>
+      <c r="G18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18">
+        <v>63</v>
+      </c>
+      <c r="I18" t="s">
+        <v>77</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>2898</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>100</v>
+      </c>
+      <c r="M18">
+        <v>65.209999999999994</v>
+      </c>
+      <c r="N18">
+        <v>1252.5899999999999</v>
+      </c>
+      <c r="P18" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>290</v>
+      </c>
+      <c r="S18">
+        <v>1474.06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" t="s">
+        <v>294</v>
+      </c>
+      <c r="B19" t="s">
+        <v>293</v>
+      </c>
+      <c r="C19" t="s">
+        <v>311</v>
+      </c>
+      <c r="D19" s="4">
+        <v>43187.762662037036</v>
+      </c>
+      <c r="E19" s="25">
+        <v>20</v>
+      </c>
+      <c r="F19">
+        <v>113</v>
+      </c>
+      <c r="G19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19">
+        <v>11.3</v>
+      </c>
+      <c r="I19" t="s">
+        <v>77</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>519.80000000000007</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>100</v>
+      </c>
+      <c r="M19">
+        <v>65.209999999999994</v>
+      </c>
+      <c r="N19">
+        <v>1252.5899999999999</v>
+      </c>
+      <c r="P19" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>290</v>
+      </c>
+      <c r="S19">
+        <v>365.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" t="s">
+        <v>294</v>
+      </c>
+      <c r="B20" t="s">
+        <v>293</v>
+      </c>
+      <c r="C20" t="s">
+        <v>312</v>
+      </c>
+      <c r="D20" s="4">
+        <v>43187.76289351852</v>
+      </c>
+      <c r="E20" s="25">
+        <v>21</v>
+      </c>
+      <c r="F20">
+        <v>465</v>
+      </c>
+      <c r="G20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20">
+        <v>46.5</v>
+      </c>
+      <c r="I20" t="s">
+        <v>77</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>2139</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>100</v>
+      </c>
+      <c r="M20">
+        <v>65.209999999999994</v>
+      </c>
+      <c r="N20">
+        <v>1252.5899999999999</v>
+      </c>
+      <c r="P20" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>290</v>
+      </c>
+      <c r="S20">
+        <v>1184.97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" t="s">
+        <v>294</v>
+      </c>
+      <c r="B21" t="s">
+        <v>293</v>
+      </c>
+      <c r="C21" t="s">
+        <v>313</v>
+      </c>
+      <c r="D21" s="4">
+        <v>43187.763020833336</v>
+      </c>
+      <c r="E21" s="25">
+        <v>23</v>
+      </c>
+      <c r="F21">
         <v>286</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="15">
-        <v>42833</v>
-      </c>
-      <c r="G2" s="15">
-        <v>43186</v>
-      </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="11">
+      <c r="G21" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21">
+        <v>28.6</v>
+      </c>
+      <c r="I21" t="s">
+        <v>77</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>1315.6000000000001</v>
+      </c>
+      <c r="K21">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="15">
-        <v>42833</v>
-      </c>
-      <c r="G3" s="15">
-        <v>43186</v>
-      </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="11">
-        <v>3</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="15">
-        <v>42833</v>
-      </c>
-      <c r="G4" s="15">
-        <v>43186</v>
-      </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-    </row>
-    <row r="5" spans="1:10" s="24" customFormat="1">
-      <c r="A5" s="26" t="s">
-        <v>279</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="23">
-        <v>42833</v>
-      </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="11">
-        <v>5</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="15">
-        <v>42833</v>
-      </c>
-      <c r="G6" s="15">
-        <v>43186</v>
-      </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="11">
-        <v>6</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="15">
-        <v>42833</v>
-      </c>
-      <c r="G7" s="15">
-        <v>43186</v>
-      </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="11">
-        <v>7</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="15">
-        <v>42833</v>
-      </c>
-      <c r="G8" s="15">
-        <v>43186</v>
-      </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="11">
-        <v>8</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="15">
-        <v>42833</v>
-      </c>
-      <c r="G9" s="15">
-        <v>43186</v>
-      </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="11">
-        <v>9</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="15">
-        <v>42833</v>
-      </c>
-      <c r="G10" s="15">
-        <v>43186</v>
-      </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="15">
-        <v>42833</v>
-      </c>
-      <c r="G11" s="15">
-        <v>43186</v>
-      </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="11">
-        <v>11</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="15">
-        <v>42833</v>
-      </c>
-      <c r="G12" s="15">
-        <v>43186</v>
-      </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="11">
-        <v>12</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="15">
-        <v>42833</v>
-      </c>
-      <c r="G13" s="15">
-        <v>43186</v>
-      </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="11">
-        <v>13</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="15">
-        <v>42833</v>
-      </c>
-      <c r="G14" s="15">
-        <v>43186</v>
-      </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="11">
-        <v>14</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="15">
-        <v>42833</v>
-      </c>
-      <c r="G15" s="15">
-        <v>43186</v>
-      </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="11">
-        <v>15</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="15">
-        <v>42833</v>
-      </c>
-      <c r="G16" s="15">
-        <v>43186</v>
-      </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-    </row>
-    <row r="17" spans="1:9" s="24" customFormat="1">
-      <c r="A17" s="26" t="s">
-        <v>279</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23">
-        <v>42833</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="11">
-        <v>17</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="15">
-        <v>42833</v>
-      </c>
-      <c r="G18" s="15">
-        <v>43186</v>
-      </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="11">
-        <v>18</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="15">
-        <v>42833</v>
-      </c>
-      <c r="G19" s="15">
-        <v>43186</v>
-      </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="11">
-        <v>19</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="15">
-        <v>42833</v>
-      </c>
-      <c r="G20" s="15">
-        <v>43186</v>
-      </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="11">
-        <v>20</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="15">
-        <v>42833</v>
-      </c>
-      <c r="G21" s="15">
-        <v>43186</v>
-      </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="11">
-        <v>21</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="15">
-        <v>42833</v>
-      </c>
-      <c r="G22" s="15">
-        <v>43186</v>
-      </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="11">
-        <v>22</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="15">
-        <v>42833</v>
-      </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="22" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="11">
-        <v>23</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="15">
-        <v>42833</v>
-      </c>
-      <c r="G24" s="15">
-        <v>43186</v>
-      </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="11">
+      <c r="L21">
+        <v>100</v>
+      </c>
+      <c r="M21">
+        <v>65.209999999999994</v>
+      </c>
+      <c r="N21">
+        <v>1252.5899999999999</v>
+      </c>
+      <c r="P21" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>290</v>
+      </c>
+      <c r="S21">
+        <v>803.93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" t="s">
+        <v>294</v>
+      </c>
+      <c r="B22" t="s">
+        <v>293</v>
+      </c>
+      <c r="C22" t="s">
+        <v>314</v>
+      </c>
+      <c r="D22" s="4">
+        <v>43187.763171296298</v>
+      </c>
+      <c r="E22" s="25">
         <v>24</v>
       </c>
-      <c r="B25" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="15">
-        <v>42833</v>
-      </c>
-      <c r="G25" s="15">
-        <v>43186</v>
-      </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-    </row>
-    <row r="26" spans="1:9" s="24" customFormat="1">
-      <c r="A26" s="22"/>
-      <c r="B26" s="25" t="s">
-        <v>266</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>265</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="23">
-        <v>42833</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="24" customFormat="1">
-      <c r="A27" s="22"/>
-      <c r="B27" s="25" t="s">
-        <v>267</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>265</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="23">
-        <v>42833</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="11">
+      <c r="F22">
+        <v>470</v>
+      </c>
+      <c r="G22" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>77</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>2162</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>100</v>
+      </c>
+      <c r="M22">
+        <v>65.209999999999994</v>
+      </c>
+      <c r="N22">
+        <v>1252.5899999999999</v>
+      </c>
+      <c r="P22" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>290</v>
+      </c>
+      <c r="S22">
+        <v>1196.44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" t="s">
+        <v>294</v>
+      </c>
+      <c r="B23" t="s">
+        <v>293</v>
+      </c>
+      <c r="C23" t="s">
+        <v>315</v>
+      </c>
+      <c r="D23" s="4">
+        <v>43187.763321759259</v>
+      </c>
+      <c r="E23" s="25">
         <v>27</v>
       </c>
-      <c r="B28" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="15">
-        <v>42833</v>
-      </c>
-      <c r="G28" s="15">
-        <v>43186</v>
-      </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="11">
+      <c r="F23">
+        <v>354</v>
+      </c>
+      <c r="G23" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23">
+        <v>35.4</v>
+      </c>
+      <c r="I23" t="s">
+        <v>77</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>1628.3999999999999</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>100</v>
+      </c>
+      <c r="M23">
+        <v>65.209999999999994</v>
+      </c>
+      <c r="N23">
+        <v>1252.5899999999999</v>
+      </c>
+      <c r="P23" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>290</v>
+      </c>
+      <c r="S23">
+        <v>957.01</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" t="s">
+        <v>294</v>
+      </c>
+      <c r="B24" t="s">
+        <v>293</v>
+      </c>
+      <c r="C24" t="s">
+        <v>316</v>
+      </c>
+      <c r="D24" s="4">
+        <v>43187.763483796298</v>
+      </c>
+      <c r="E24" s="25">
         <v>28</v>
       </c>
-      <c r="B29" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="15">
-        <v>42833</v>
-      </c>
-      <c r="G29" s="15">
-        <v>43186</v>
-      </c>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="11">
+      <c r="F24">
+        <v>830</v>
+      </c>
+      <c r="G24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24">
+        <v>83</v>
+      </c>
+      <c r="I24" t="s">
+        <v>77</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>3818</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>100</v>
+      </c>
+      <c r="M24">
+        <v>65.209999999999994</v>
+      </c>
+      <c r="N24">
+        <v>1252.5899999999999</v>
+      </c>
+      <c r="P24" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>290</v>
+      </c>
+      <c r="S24">
+        <v>1769.69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" t="s">
+        <v>294</v>
+      </c>
+      <c r="B25" t="s">
+        <v>293</v>
+      </c>
+      <c r="C25" t="s">
+        <v>317</v>
+      </c>
+      <c r="D25" s="4">
+        <v>43187.763599537036</v>
+      </c>
+      <c r="E25" s="25">
         <v>29</v>
       </c>
-      <c r="B30" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="15">
-        <v>42833</v>
-      </c>
-      <c r="G30" s="15">
-        <v>43186</v>
-      </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-    </row>
-    <row r="31" spans="1:9" s="24" customFormat="1">
-      <c r="A31" s="22"/>
-      <c r="B31" s="25" t="s">
-        <v>271</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>265</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="E31" s="22"/>
-      <c r="F31" s="23">
-        <v>42833</v>
-      </c>
-      <c r="G31" s="15"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="24" customFormat="1">
-      <c r="A32" s="22"/>
-      <c r="B32" s="25" t="s">
-        <v>272</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>265</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="E32" s="22"/>
-      <c r="F32" s="23">
-        <v>42833</v>
-      </c>
-      <c r="G32" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="11">
+      <c r="F25">
+        <v>690</v>
+      </c>
+      <c r="G25" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25">
+        <v>69</v>
+      </c>
+      <c r="I25" t="s">
+        <v>77</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>3174</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>100</v>
+      </c>
+      <c r="M25">
+        <v>65.209999999999994</v>
+      </c>
+      <c r="N25">
+        <v>1252.5899999999999</v>
+      </c>
+      <c r="P25" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>290</v>
+      </c>
+      <c r="S25">
+        <v>1576.65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" t="s">
+        <v>294</v>
+      </c>
+      <c r="B26" t="s">
+        <v>293</v>
+      </c>
+      <c r="C26" t="s">
+        <v>318</v>
+      </c>
+      <c r="D26" s="4">
+        <v>43187.763726851852</v>
+      </c>
+      <c r="E26" s="25">
         <v>32</v>
       </c>
-      <c r="B33" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="15">
-        <v>42833</v>
-      </c>
-      <c r="G33" s="15">
-        <v>43186</v>
-      </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="11">
+      <c r="F26" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" t="s">
+        <v>82</v>
+      </c>
+      <c r="I26" t="s">
+        <v>77</v>
+      </c>
+      <c r="J26" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>100</v>
+      </c>
+      <c r="M26">
+        <v>65.209999999999994</v>
+      </c>
+      <c r="N26">
+        <v>1252.5899999999999</v>
+      </c>
+      <c r="P26" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>290</v>
+      </c>
+      <c r="S26">
+        <v>2354.44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" t="s">
+        <v>294</v>
+      </c>
+      <c r="B27" t="s">
+        <v>293</v>
+      </c>
+      <c r="C27" t="s">
+        <v>319</v>
+      </c>
+      <c r="D27" s="4">
+        <v>43187.76390046296</v>
+      </c>
+      <c r="E27" s="25">
         <v>33</v>
       </c>
-      <c r="B34" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="15">
-        <v>42833</v>
-      </c>
-      <c r="G34" s="15">
-        <v>43186</v>
-      </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="11">
-        <v>34</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="11">
-        <v>35</v>
-      </c>
-      <c r="B36" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="11">
-        <v>36</v>
-      </c>
-      <c r="B37" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="11">
-        <v>37</v>
-      </c>
-      <c r="B38" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="11">
-        <v>38</v>
-      </c>
-      <c r="B39" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="11">
-        <v>39</v>
-      </c>
-      <c r="B40" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="11">
-        <v>40</v>
-      </c>
-      <c r="B41" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="29">
-        <v>41</v>
-      </c>
-      <c r="B42" s="28" t="s">
-        <v>284</v>
-      </c>
-      <c r="C42" s="28" t="s">
-        <v>283</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="29">
-        <v>42</v>
-      </c>
-      <c r="B43" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C43" s="28" t="s">
-        <v>283</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="29">
-        <v>43</v>
-      </c>
-      <c r="B44" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="C44" s="28" t="s">
-        <v>283</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="29">
-        <v>44</v>
-      </c>
-      <c r="B45" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="C45" s="28" t="s">
-        <v>283</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="29">
-        <v>45</v>
-      </c>
-      <c r="B46" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="C46" s="28" t="s">
-        <v>283</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="29">
-        <v>46</v>
-      </c>
-      <c r="B47" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="C47" s="28" t="s">
-        <v>283</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="29">
-        <v>47</v>
-      </c>
-      <c r="B48" s="28" t="s">
-        <v>285</v>
-      </c>
-      <c r="C48" s="28" t="s">
-        <v>283</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11" t="s">
+      <c r="F27">
+        <v>476</v>
+      </c>
+      <c r="G27" t="s">
+        <v>78</v>
+      </c>
+      <c r="H27">
+        <v>47.6</v>
+      </c>
+      <c r="I27" t="s">
+        <v>77</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>2189.6</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>100</v>
+      </c>
+      <c r="M27">
+        <v>65.209999999999994</v>
+      </c>
+      <c r="N27">
+        <v>1252.5899999999999</v>
+      </c>
+      <c r="P27" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q27" t="s">
         <v>290</v>
       </c>
+      <c r="S27">
+        <v>1207.27</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <sortState ref="A2:S27">
+    <sortCondition ref="E2:E27"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="87" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="34" max="16383" man="1"/>
-  </rowBreaks>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R15"/>
+  <sheetViews>
+    <sheetView showRuler="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="7" max="7" width="23.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>91</v>
+      </c>
+      <c r="R1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D2" s="4">
+        <v>43192.471365740741</v>
+      </c>
+      <c r="E2">
+        <v>306</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2">
+        <v>61.2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2">
+        <v>34</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>200</v>
+      </c>
+      <c r="L2">
+        <v>74.540000000000006</v>
+      </c>
+      <c r="M2">
+        <v>965.43</v>
+      </c>
+      <c r="O2" t="s">
+        <v>291</v>
+      </c>
+      <c r="P2" t="s">
+        <v>290</v>
+      </c>
+      <c r="R2">
+        <v>662.83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D3" s="4">
+        <v>43192.471562500003</v>
+      </c>
+      <c r="E3">
+        <v>355</v>
+      </c>
+      <c r="F3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3">
+        <v>71</v>
+      </c>
+      <c r="H3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3">
+        <v>35</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>200</v>
+      </c>
+      <c r="L3">
+        <v>74.540000000000006</v>
+      </c>
+      <c r="M3">
+        <v>965.43</v>
+      </c>
+      <c r="O3" t="s">
+        <v>291</v>
+      </c>
+      <c r="P3" t="s">
+        <v>290</v>
+      </c>
+      <c r="R3">
+        <v>744.91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D4" s="4">
+        <v>43192.471655092595</v>
+      </c>
+      <c r="E4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4">
+        <v>36</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>200</v>
+      </c>
+      <c r="L4">
+        <v>74.540000000000006</v>
+      </c>
+      <c r="M4">
+        <v>965.43</v>
+      </c>
+      <c r="O4" t="s">
+        <v>291</v>
+      </c>
+      <c r="P4" t="s">
+        <v>290</v>
+      </c>
+      <c r="R4">
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C5" t="s">
+        <v>335</v>
+      </c>
+      <c r="D5" s="4">
+        <v>43192.471759259257</v>
+      </c>
+      <c r="E5">
+        <v>610</v>
+      </c>
+      <c r="F5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5">
+        <v>122</v>
+      </c>
+      <c r="H5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5">
+        <v>37</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>200</v>
+      </c>
+      <c r="L5">
+        <v>74.540000000000006</v>
+      </c>
+      <c r="M5">
+        <v>965.43</v>
+      </c>
+      <c r="O5" t="s">
+        <v>291</v>
+      </c>
+      <c r="P5" t="s">
+        <v>290</v>
+      </c>
+      <c r="R5">
+        <v>1108.97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" t="s">
+        <v>324</v>
+      </c>
+      <c r="B6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D6" s="4">
+        <v>43192.47184027778</v>
+      </c>
+      <c r="E6">
+        <v>35.6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6">
+        <v>7.12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6">
+        <v>38</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>200</v>
+      </c>
+      <c r="L6">
+        <v>74.540000000000006</v>
+      </c>
+      <c r="M6">
+        <v>965.43</v>
+      </c>
+      <c r="O6" t="s">
+        <v>291</v>
+      </c>
+      <c r="P6" t="s">
+        <v>290</v>
+      </c>
+      <c r="R6">
+        <v>141.08000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D7" s="4">
+        <v>43192.471909722219</v>
+      </c>
+      <c r="E7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>340</v>
+      </c>
+      <c r="H7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7">
+        <v>39</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>200</v>
+      </c>
+      <c r="L7">
+        <v>74.540000000000006</v>
+      </c>
+      <c r="M7">
+        <v>965.43</v>
+      </c>
+      <c r="O7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P7" t="s">
+        <v>290</v>
+      </c>
+      <c r="R7">
+        <v>1672.84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" t="s">
+        <v>324</v>
+      </c>
+      <c r="B8" t="s">
+        <v>293</v>
+      </c>
+      <c r="C8" t="s">
+        <v>332</v>
+      </c>
+      <c r="D8" s="4">
+        <v>43192.472002314818</v>
+      </c>
+      <c r="E8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" t="s">
+        <v>339</v>
+      </c>
+      <c r="H8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8">
+        <v>40</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>200</v>
+      </c>
+      <c r="L8">
+        <v>74.540000000000006</v>
+      </c>
+      <c r="M8">
+        <v>965.43</v>
+      </c>
+      <c r="O8" t="s">
+        <v>291</v>
+      </c>
+      <c r="P8" t="s">
+        <v>290</v>
+      </c>
+      <c r="R8">
+        <v>80.62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" t="s">
+        <v>324</v>
+      </c>
+      <c r="B9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C9" t="s">
+        <v>331</v>
+      </c>
+      <c r="D9" s="4">
+        <v>43192.472094907411</v>
+      </c>
+      <c r="E9">
+        <v>361</v>
+      </c>
+      <c r="F9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9">
+        <v>72.2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9">
+        <v>41</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>200</v>
+      </c>
+      <c r="L9">
+        <v>74.540000000000006</v>
+      </c>
+      <c r="M9">
+        <v>965.43</v>
+      </c>
+      <c r="O9" t="s">
+        <v>291</v>
+      </c>
+      <c r="P9" t="s">
+        <v>290</v>
+      </c>
+      <c r="R9">
+        <v>756.12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" t="s">
+        <v>324</v>
+      </c>
+      <c r="B10" t="s">
+        <v>293</v>
+      </c>
+      <c r="C10" t="s">
+        <v>330</v>
+      </c>
+      <c r="D10" s="4">
+        <v>43192.472175925926</v>
+      </c>
+      <c r="E10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10">
+        <v>42</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>200</v>
+      </c>
+      <c r="L10">
+        <v>74.540000000000006</v>
+      </c>
+      <c r="M10">
+        <v>965.43</v>
+      </c>
+      <c r="O10" t="s">
+        <v>291</v>
+      </c>
+      <c r="P10" t="s">
+        <v>290</v>
+      </c>
+      <c r="R10">
+        <v>37.49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" t="s">
+        <v>324</v>
+      </c>
+      <c r="B11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C11" t="s">
+        <v>329</v>
+      </c>
+      <c r="D11" s="4">
+        <v>43192.472256944442</v>
+      </c>
+      <c r="E11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" t="s">
+        <v>340</v>
+      </c>
+      <c r="H11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11">
+        <v>43</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>200</v>
+      </c>
+      <c r="L11">
+        <v>74.540000000000006</v>
+      </c>
+      <c r="M11">
+        <v>965.43</v>
+      </c>
+      <c r="O11" t="s">
+        <v>291</v>
+      </c>
+      <c r="P11" t="s">
+        <v>290</v>
+      </c>
+      <c r="R11">
+        <v>1803.22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" t="s">
+        <v>324</v>
+      </c>
+      <c r="B12" t="s">
+        <v>293</v>
+      </c>
+      <c r="C12" t="s">
+        <v>328</v>
+      </c>
+      <c r="D12" s="4">
+        <v>43192.472349537034</v>
+      </c>
+      <c r="E12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" t="s">
+        <v>340</v>
+      </c>
+      <c r="H12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12">
+        <v>44</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>200</v>
+      </c>
+      <c r="L12">
+        <v>74.540000000000006</v>
+      </c>
+      <c r="M12">
+        <v>965.43</v>
+      </c>
+      <c r="O12" t="s">
+        <v>291</v>
+      </c>
+      <c r="P12" t="s">
+        <v>290</v>
+      </c>
+      <c r="R12">
+        <v>1843.26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" t="s">
+        <v>324</v>
+      </c>
+      <c r="B13" t="s">
+        <v>293</v>
+      </c>
+      <c r="C13" t="s">
+        <v>327</v>
+      </c>
+      <c r="D13" s="4">
+        <v>43192.472430555557</v>
+      </c>
+      <c r="E13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" t="s">
+        <v>340</v>
+      </c>
+      <c r="H13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13">
+        <v>45</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>200</v>
+      </c>
+      <c r="L13">
+        <v>74.540000000000006</v>
+      </c>
+      <c r="M13">
+        <v>965.43</v>
+      </c>
+      <c r="O13" t="s">
+        <v>291</v>
+      </c>
+      <c r="P13" t="s">
+        <v>290</v>
+      </c>
+      <c r="R13">
+        <v>1689.42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" t="s">
+        <v>324</v>
+      </c>
+      <c r="B14" t="s">
+        <v>293</v>
+      </c>
+      <c r="C14" t="s">
+        <v>326</v>
+      </c>
+      <c r="D14" s="4">
+        <v>43192.472511574073</v>
+      </c>
+      <c r="E14">
+        <v>444</v>
+      </c>
+      <c r="F14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14">
+        <v>88.8</v>
+      </c>
+      <c r="H14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14">
+        <v>46</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>200</v>
+      </c>
+      <c r="L14">
+        <v>74.540000000000006</v>
+      </c>
+      <c r="M14">
+        <v>965.43</v>
+      </c>
+      <c r="O14" t="s">
+        <v>291</v>
+      </c>
+      <c r="P14" t="s">
+        <v>290</v>
+      </c>
+      <c r="R14">
+        <v>883.76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" t="s">
+        <v>324</v>
+      </c>
+      <c r="B15" t="s">
+        <v>293</v>
+      </c>
+      <c r="C15" t="s">
+        <v>325</v>
+      </c>
+      <c r="D15" s="4">
+        <v>43192.472638888888</v>
+      </c>
+      <c r="E15">
+        <v>970</v>
+      </c>
+      <c r="F15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15">
+        <v>194</v>
+      </c>
+      <c r="H15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15">
+        <v>47</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>200</v>
+      </c>
+      <c r="L15">
+        <v>74.540000000000006</v>
+      </c>
+      <c r="M15">
+        <v>965.43</v>
+      </c>
+      <c r="O15" t="s">
+        <v>291</v>
+      </c>
+      <c r="P15" t="s">
+        <v>290</v>
+      </c>
+      <c r="R15">
+        <v>1486.63</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:R15">
+    <sortCondition ref="I2:I15"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:P33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="13.5" style="181" customWidth="1"/>
+    <col min="2" max="2" width="13" style="181" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="182" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="183" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="182" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="182" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="183" customWidth="1"/>
+    <col min="8" max="8" width="21.5" style="182" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" style="182" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="182" customWidth="1"/>
+    <col min="11" max="11" width="24" style="184" customWidth="1"/>
+    <col min="12" max="12" width="24.33203125" style="185" customWidth="1"/>
+    <col min="13" max="13" width="89.83203125" style="182" customWidth="1"/>
+    <col min="14" max="14" width="31.83203125" style="182" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="182"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="132" customFormat="1" ht="42" customHeight="1">
+      <c r="A1" s="128" t="s">
+        <v>342</v>
+      </c>
+      <c r="B1" s="128" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="128" t="s">
+        <v>359</v>
+      </c>
+      <c r="D1" s="129" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1" s="128" t="s">
+        <v>262</v>
+      </c>
+      <c r="F1" s="128" t="s">
+        <v>354</v>
+      </c>
+      <c r="G1" s="128" t="s">
+        <v>355</v>
+      </c>
+      <c r="H1" s="128" t="s">
+        <v>177</v>
+      </c>
+      <c r="I1" s="128" t="s">
+        <v>356</v>
+      </c>
+      <c r="J1" s="128" t="s">
+        <v>357</v>
+      </c>
+      <c r="K1" s="130" t="s">
+        <v>321</v>
+      </c>
+      <c r="L1" s="131" t="s">
+        <v>322</v>
+      </c>
+      <c r="M1" s="128" t="s">
+        <v>274</v>
+      </c>
+      <c r="N1" s="65" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="140" customFormat="1">
+      <c r="A2" s="133">
+        <v>1</v>
+      </c>
+      <c r="B2" s="133">
+        <v>2</v>
+      </c>
+      <c r="C2" s="134" t="s">
+        <v>246</v>
+      </c>
+      <c r="D2" s="135">
+        <v>6</v>
+      </c>
+      <c r="E2" s="134" t="s">
+        <v>263</v>
+      </c>
+      <c r="F2" s="134" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="135">
+        <v>2</v>
+      </c>
+      <c r="H2" s="134" t="s">
+        <v>261</v>
+      </c>
+      <c r="I2" s="136">
+        <v>42833</v>
+      </c>
+      <c r="J2" s="136">
+        <v>43186</v>
+      </c>
+      <c r="K2" s="137">
+        <v>84</v>
+      </c>
+      <c r="L2" s="138">
+        <f>K2*46</f>
+        <v>3864</v>
+      </c>
+      <c r="M2" s="134"/>
+      <c r="N2" s="139"/>
+      <c r="P2" s="139"/>
+    </row>
+    <row r="3" spans="1:16" s="140" customFormat="1">
+      <c r="A3" s="133">
+        <v>1</v>
+      </c>
+      <c r="B3" s="133">
+        <v>3</v>
+      </c>
+      <c r="C3" s="134" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3" s="135">
+        <v>6</v>
+      </c>
+      <c r="E3" s="134" t="s">
+        <v>263</v>
+      </c>
+      <c r="F3" s="134" t="s">
+        <v>343</v>
+      </c>
+      <c r="G3" s="135">
+        <v>2</v>
+      </c>
+      <c r="H3" s="134" t="s">
+        <v>261</v>
+      </c>
+      <c r="I3" s="136">
+        <v>42833</v>
+      </c>
+      <c r="J3" s="136">
+        <v>43186</v>
+      </c>
+      <c r="K3" s="137">
+        <v>43.9</v>
+      </c>
+      <c r="L3" s="138">
+        <f>K3*46</f>
+        <v>2019.3999999999999</v>
+      </c>
+      <c r="M3" s="134"/>
+      <c r="N3" s="139"/>
+      <c r="P3" s="139"/>
+    </row>
+    <row r="4" spans="1:16" s="140" customFormat="1">
+      <c r="A4" s="133">
+        <v>1</v>
+      </c>
+      <c r="B4" s="133">
+        <v>7</v>
+      </c>
+      <c r="C4" s="134" t="s">
+        <v>251</v>
+      </c>
+      <c r="D4" s="135">
+        <v>6</v>
+      </c>
+      <c r="E4" s="134" t="s">
+        <v>263</v>
+      </c>
+      <c r="F4" s="134" t="s">
+        <v>343</v>
+      </c>
+      <c r="G4" s="135">
+        <v>2</v>
+      </c>
+      <c r="H4" s="134" t="s">
+        <v>261</v>
+      </c>
+      <c r="I4" s="136">
+        <v>42833</v>
+      </c>
+      <c r="J4" s="136">
+        <v>43186</v>
+      </c>
+      <c r="K4" s="137">
+        <v>56</v>
+      </c>
+      <c r="L4" s="138">
+        <f>K4*46</f>
+        <v>2576</v>
+      </c>
+      <c r="M4" s="134"/>
+      <c r="N4" s="139"/>
+      <c r="P4" s="139"/>
+    </row>
+    <row r="5" spans="1:16" s="140" customFormat="1">
+      <c r="A5" s="133">
+        <v>2</v>
+      </c>
+      <c r="B5" s="133">
+        <v>9</v>
+      </c>
+      <c r="C5" s="134" t="s">
+        <v>253</v>
+      </c>
+      <c r="D5" s="135">
+        <v>6</v>
+      </c>
+      <c r="E5" s="134" t="s">
+        <v>263</v>
+      </c>
+      <c r="F5" s="134" t="s">
+        <v>343</v>
+      </c>
+      <c r="G5" s="135">
+        <v>2</v>
+      </c>
+      <c r="H5" s="134" t="s">
+        <v>261</v>
+      </c>
+      <c r="I5" s="136">
+        <v>42833</v>
+      </c>
+      <c r="J5" s="136">
+        <v>43186</v>
+      </c>
+      <c r="K5" s="137">
+        <v>24.2</v>
+      </c>
+      <c r="L5" s="138">
+        <f>K5*46</f>
+        <v>1113.2</v>
+      </c>
+      <c r="M5" s="134"/>
+      <c r="N5" s="139"/>
+      <c r="P5" s="139"/>
+    </row>
+    <row r="6" spans="1:16" s="140" customFormat="1">
+      <c r="A6" s="133">
+        <v>3</v>
+      </c>
+      <c r="B6" s="133">
+        <v>5</v>
+      </c>
+      <c r="C6" s="134" t="s">
+        <v>249</v>
+      </c>
+      <c r="D6" s="135">
+        <v>6</v>
+      </c>
+      <c r="E6" s="134" t="s">
+        <v>263</v>
+      </c>
+      <c r="F6" s="134" t="s">
+        <v>343</v>
+      </c>
+      <c r="G6" s="135">
+        <v>0</v>
+      </c>
+      <c r="H6" s="134" t="s">
+        <v>261</v>
+      </c>
+      <c r="I6" s="136">
+        <v>42833</v>
+      </c>
+      <c r="J6" s="136">
+        <v>43186</v>
+      </c>
+      <c r="K6" s="137">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="L6" s="138">
+        <f>K6*46</f>
+        <v>1527.2</v>
+      </c>
+      <c r="M6" s="134"/>
+      <c r="N6" s="139"/>
+      <c r="P6" s="139"/>
+    </row>
+    <row r="7" spans="1:16" s="148" customFormat="1">
+      <c r="A7" s="141">
+        <v>1</v>
+      </c>
+      <c r="B7" s="141">
+        <v>10</v>
+      </c>
+      <c r="C7" s="142" t="s">
+        <v>236</v>
+      </c>
+      <c r="D7" s="143">
+        <v>6</v>
+      </c>
+      <c r="E7" s="142" t="s">
+        <v>264</v>
+      </c>
+      <c r="F7" s="142" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="143">
+        <v>2</v>
+      </c>
+      <c r="H7" s="142" t="s">
+        <v>261</v>
+      </c>
+      <c r="I7" s="144">
+        <v>42833</v>
+      </c>
+      <c r="J7" s="144">
+        <v>43186</v>
+      </c>
+      <c r="K7" s="145">
+        <v>76</v>
+      </c>
+      <c r="L7" s="146">
+        <f>K7*46</f>
+        <v>3496</v>
+      </c>
+      <c r="M7" s="142"/>
+      <c r="N7" s="147"/>
+      <c r="P7" s="147"/>
+    </row>
+    <row r="8" spans="1:16" s="148" customFormat="1">
+      <c r="A8" s="141">
+        <v>1</v>
+      </c>
+      <c r="B8" s="141">
+        <v>11</v>
+      </c>
+      <c r="C8" s="142" t="s">
+        <v>237</v>
+      </c>
+      <c r="D8" s="143">
+        <v>6</v>
+      </c>
+      <c r="E8" s="142" t="s">
+        <v>264</v>
+      </c>
+      <c r="F8" s="142" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="143">
+        <v>2</v>
+      </c>
+      <c r="H8" s="142" t="s">
+        <v>261</v>
+      </c>
+      <c r="I8" s="144">
+        <v>42833</v>
+      </c>
+      <c r="J8" s="144">
+        <v>43186</v>
+      </c>
+      <c r="K8" s="145">
+        <v>51</v>
+      </c>
+      <c r="L8" s="146">
+        <f>K8*46</f>
+        <v>2346</v>
+      </c>
+      <c r="M8" s="142"/>
+      <c r="N8" s="147"/>
+      <c r="P8" s="147"/>
+    </row>
+    <row r="9" spans="1:16" s="148" customFormat="1">
+      <c r="A9" s="141">
+        <v>1</v>
+      </c>
+      <c r="B9" s="141">
+        <v>13</v>
+      </c>
+      <c r="C9" s="120" t="s">
+        <v>239</v>
+      </c>
+      <c r="D9" s="143">
+        <v>6</v>
+      </c>
+      <c r="E9" s="142" t="s">
+        <v>264</v>
+      </c>
+      <c r="F9" s="142" t="s">
+        <v>344</v>
+      </c>
+      <c r="G9" s="143">
+        <v>2</v>
+      </c>
+      <c r="H9" s="142" t="s">
+        <v>261</v>
+      </c>
+      <c r="I9" s="144">
+        <v>42833</v>
+      </c>
+      <c r="J9" s="144">
+        <v>43186</v>
+      </c>
+      <c r="K9" s="145">
+        <v>34.6</v>
+      </c>
+      <c r="L9" s="146">
+        <f>K9*46</f>
+        <v>1591.6000000000001</v>
+      </c>
+      <c r="M9" s="142"/>
+      <c r="N9" s="147"/>
+      <c r="P9" s="147"/>
+    </row>
+    <row r="10" spans="1:16" s="148" customFormat="1">
+      <c r="A10" s="141">
+        <v>1</v>
+      </c>
+      <c r="B10" s="141">
+        <v>14</v>
+      </c>
+      <c r="C10" s="120" t="s">
+        <v>240</v>
+      </c>
+      <c r="D10" s="143">
+        <v>6</v>
+      </c>
+      <c r="E10" s="142" t="s">
+        <v>264</v>
+      </c>
+      <c r="F10" s="142" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="143">
+        <v>3</v>
+      </c>
+      <c r="H10" s="142" t="s">
+        <v>261</v>
+      </c>
+      <c r="I10" s="144">
+        <v>42833</v>
+      </c>
+      <c r="J10" s="144">
+        <v>43186</v>
+      </c>
+      <c r="K10" s="145">
+        <v>49.6</v>
+      </c>
+      <c r="L10" s="146">
+        <f>K10*46</f>
+        <v>2281.6</v>
+      </c>
+      <c r="M10" s="142"/>
+      <c r="N10" s="147"/>
+      <c r="P10" s="147"/>
+    </row>
+    <row r="11" spans="1:16" s="148" customFormat="1">
+      <c r="A11" s="141">
+        <v>1</v>
+      </c>
+      <c r="B11" s="141">
+        <v>15</v>
+      </c>
+      <c r="C11" s="120" t="s">
+        <v>241</v>
+      </c>
+      <c r="D11" s="143">
+        <v>6</v>
+      </c>
+      <c r="E11" s="142" t="s">
+        <v>264</v>
+      </c>
+      <c r="F11" s="142" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="143">
+        <v>3</v>
+      </c>
+      <c r="H11" s="142" t="s">
+        <v>261</v>
+      </c>
+      <c r="I11" s="144">
+        <v>42833</v>
+      </c>
+      <c r="J11" s="144">
+        <v>43186</v>
+      </c>
+      <c r="K11" s="145">
+        <v>57</v>
+      </c>
+      <c r="L11" s="146">
+        <f>K11*46</f>
+        <v>2622</v>
+      </c>
+      <c r="M11" s="142"/>
+      <c r="N11" s="147"/>
+      <c r="P11" s="147"/>
+    </row>
+    <row r="12" spans="1:16" s="148" customFormat="1">
+      <c r="A12" s="141">
+        <v>2</v>
+      </c>
+      <c r="B12" s="141">
+        <v>18</v>
+      </c>
+      <c r="C12" s="120" t="s">
+        <v>244</v>
+      </c>
+      <c r="D12" s="143">
+        <v>6</v>
+      </c>
+      <c r="E12" s="142" t="s">
+        <v>264</v>
+      </c>
+      <c r="F12" s="142" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="143">
+        <v>2</v>
+      </c>
+      <c r="H12" s="142" t="s">
+        <v>261</v>
+      </c>
+      <c r="I12" s="144">
+        <v>42833</v>
+      </c>
+      <c r="J12" s="144">
+        <v>43186</v>
+      </c>
+      <c r="K12" s="145">
+        <v>18.3</v>
+      </c>
+      <c r="L12" s="146">
+        <f>K12*46</f>
+        <v>841.80000000000007</v>
+      </c>
+      <c r="M12" s="142"/>
+      <c r="N12" s="147"/>
+      <c r="P12" s="147"/>
+    </row>
+    <row r="13" spans="1:16" s="148" customFormat="1">
+      <c r="A13" s="141">
+        <v>3</v>
+      </c>
+      <c r="B13" s="141">
+        <v>17</v>
+      </c>
+      <c r="C13" s="120" t="s">
+        <v>243</v>
+      </c>
+      <c r="D13" s="143">
+        <v>6</v>
+      </c>
+      <c r="E13" s="142" t="s">
+        <v>264</v>
+      </c>
+      <c r="F13" s="142" t="s">
+        <v>343</v>
+      </c>
+      <c r="G13" s="143">
+        <v>2</v>
+      </c>
+      <c r="H13" s="142" t="s">
+        <v>261</v>
+      </c>
+      <c r="I13" s="144">
+        <v>42833</v>
+      </c>
+      <c r="J13" s="144">
+        <v>43186</v>
+      </c>
+      <c r="K13" s="145">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="L13" s="146">
+        <f>K13*46</f>
+        <v>901.6</v>
+      </c>
+      <c r="M13" s="142"/>
+      <c r="N13" s="147"/>
+      <c r="P13" s="147"/>
+    </row>
+    <row r="14" spans="1:16" s="30" customFormat="1">
+      <c r="A14" s="124">
+        <v>1</v>
+      </c>
+      <c r="B14" s="126" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>345</v>
+      </c>
+      <c r="D14" s="127">
+        <v>10</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="122">
+        <v>3</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="I14" s="32">
+        <v>42833</v>
+      </c>
+      <c r="J14" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="K14" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" s="108" t="s">
+        <v>74</v>
+      </c>
+      <c r="M14" s="27"/>
+      <c r="N14" s="34"/>
+      <c r="P14" s="34"/>
+    </row>
+    <row r="15" spans="1:16" s="156" customFormat="1">
+      <c r="A15" s="149">
+        <v>1</v>
+      </c>
+      <c r="B15" s="149">
+        <v>19</v>
+      </c>
+      <c r="C15" s="118" t="s">
+        <v>254</v>
+      </c>
+      <c r="D15" s="121">
+        <v>10</v>
+      </c>
+      <c r="E15" s="118" t="s">
+        <v>263</v>
+      </c>
+      <c r="F15" s="150" t="s">
+        <v>344</v>
+      </c>
+      <c r="G15" s="151">
+        <v>2</v>
+      </c>
+      <c r="H15" s="150" t="s">
+        <v>261</v>
+      </c>
+      <c r="I15" s="152">
+        <v>42833</v>
+      </c>
+      <c r="J15" s="152">
+        <v>43186</v>
+      </c>
+      <c r="K15" s="153">
+        <v>63</v>
+      </c>
+      <c r="L15" s="154">
+        <f>K15*46</f>
+        <v>2898</v>
+      </c>
+      <c r="M15" s="150"/>
+      <c r="N15" s="155"/>
+      <c r="P15" s="155"/>
+    </row>
+    <row r="16" spans="1:16" s="156" customFormat="1">
+      <c r="A16" s="149">
+        <v>1</v>
+      </c>
+      <c r="B16" s="149">
+        <v>21</v>
+      </c>
+      <c r="C16" s="118" t="s">
+        <v>256</v>
+      </c>
+      <c r="D16" s="121">
+        <v>10</v>
+      </c>
+      <c r="E16" s="118" t="s">
+        <v>263</v>
+      </c>
+      <c r="F16" s="150" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="151">
+        <v>2</v>
+      </c>
+      <c r="H16" s="150" t="s">
+        <v>261</v>
+      </c>
+      <c r="I16" s="152">
+        <v>42833</v>
+      </c>
+      <c r="J16" s="152">
+        <v>43186</v>
+      </c>
+      <c r="K16" s="153">
+        <v>46.5</v>
+      </c>
+      <c r="L16" s="154">
+        <f>K16*46</f>
+        <v>2139</v>
+      </c>
+      <c r="M16" s="150"/>
+      <c r="N16" s="155"/>
+      <c r="P16" s="155"/>
+    </row>
+    <row r="17" spans="1:16" s="156" customFormat="1">
+      <c r="A17" s="149">
+        <v>1</v>
+      </c>
+      <c r="B17" s="149">
+        <v>23</v>
+      </c>
+      <c r="C17" s="118" t="s">
+        <v>258</v>
+      </c>
+      <c r="D17" s="121">
+        <v>10</v>
+      </c>
+      <c r="E17" s="118" t="s">
+        <v>263</v>
+      </c>
+      <c r="F17" s="150" t="s">
+        <v>343</v>
+      </c>
+      <c r="G17" s="151">
+        <v>2</v>
+      </c>
+      <c r="H17" s="150" t="s">
+        <v>261</v>
+      </c>
+      <c r="I17" s="152">
+        <v>42833</v>
+      </c>
+      <c r="J17" s="152">
+        <v>43186</v>
+      </c>
+      <c r="K17" s="153">
+        <v>28.6</v>
+      </c>
+      <c r="L17" s="154">
+        <f>K17*46</f>
+        <v>1315.6000000000001</v>
+      </c>
+      <c r="M17" s="150"/>
+      <c r="N17" s="155"/>
+      <c r="P17" s="155"/>
+    </row>
+    <row r="18" spans="1:16" s="156" customFormat="1">
+      <c r="A18" s="149">
+        <v>1</v>
+      </c>
+      <c r="B18" s="149">
+        <v>24</v>
+      </c>
+      <c r="C18" s="118" t="s">
+        <v>259</v>
+      </c>
+      <c r="D18" s="121">
+        <v>10</v>
+      </c>
+      <c r="E18" s="118" t="s">
+        <v>263</v>
+      </c>
+      <c r="F18" s="150" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="151">
+        <v>2</v>
+      </c>
+      <c r="H18" s="150" t="s">
+        <v>261</v>
+      </c>
+      <c r="I18" s="152">
+        <v>42833</v>
+      </c>
+      <c r="J18" s="152">
+        <v>43186</v>
+      </c>
+      <c r="K18" s="153">
+        <v>47</v>
+      </c>
+      <c r="L18" s="154">
+        <f>K18*46</f>
+        <v>2162</v>
+      </c>
+      <c r="M18" s="150"/>
+      <c r="N18" s="155"/>
+      <c r="P18" s="155"/>
+    </row>
+    <row r="19" spans="1:16" s="156" customFormat="1">
+      <c r="A19" s="149">
+        <v>2</v>
+      </c>
+      <c r="B19" s="123" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="118" t="s">
+        <v>346</v>
+      </c>
+      <c r="D19" s="121">
+        <v>10</v>
+      </c>
+      <c r="E19" s="150" t="s">
+        <v>263</v>
+      </c>
+      <c r="F19" s="150" t="s">
+        <v>343</v>
+      </c>
+      <c r="G19" s="151">
+        <v>2</v>
+      </c>
+      <c r="H19" s="150" t="s">
+        <v>261</v>
+      </c>
+      <c r="I19" s="152">
+        <v>42833</v>
+      </c>
+      <c r="J19" s="152" t="s">
+        <v>358</v>
+      </c>
+      <c r="K19" s="153" t="s">
+        <v>74</v>
+      </c>
+      <c r="L19" s="154" t="s">
+        <v>74</v>
+      </c>
+      <c r="M19" s="150"/>
+      <c r="N19" s="155"/>
+      <c r="P19" s="155"/>
+    </row>
+    <row r="20" spans="1:16" s="156" customFormat="1">
+      <c r="A20" s="149">
+        <v>3</v>
+      </c>
+      <c r="B20" s="123" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="118" t="s">
+        <v>348</v>
+      </c>
+      <c r="D20" s="121">
+        <v>10</v>
+      </c>
+      <c r="E20" s="118" t="s">
+        <v>263</v>
+      </c>
+      <c r="F20" s="150" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="151">
+        <v>3</v>
+      </c>
+      <c r="H20" s="150" t="s">
+        <v>261</v>
+      </c>
+      <c r="I20" s="152">
+        <v>42833</v>
+      </c>
+      <c r="J20" s="152" t="s">
+        <v>358</v>
+      </c>
+      <c r="K20" s="153" t="s">
+        <v>74</v>
+      </c>
+      <c r="L20" s="154" t="s">
+        <v>74</v>
+      </c>
+      <c r="M20" s="150"/>
+      <c r="N20" s="155"/>
+      <c r="P20" s="155"/>
+    </row>
+    <row r="21" spans="1:16" s="115" customFormat="1">
+      <c r="A21" s="125">
+        <v>1</v>
+      </c>
+      <c r="B21" s="125">
+        <v>29</v>
+      </c>
+      <c r="C21" s="110" t="s">
+        <v>269</v>
+      </c>
+      <c r="D21" s="157">
+        <v>10</v>
+      </c>
+      <c r="E21" s="110" t="s">
+        <v>264</v>
+      </c>
+      <c r="F21" s="111" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="112">
+        <v>2</v>
+      </c>
+      <c r="H21" s="111" t="s">
+        <v>261</v>
+      </c>
+      <c r="I21" s="113">
+        <v>42833</v>
+      </c>
+      <c r="J21" s="113">
+        <v>43186</v>
+      </c>
+      <c r="K21" s="116">
+        <v>69</v>
+      </c>
+      <c r="L21" s="117">
+        <f>K21*46</f>
+        <v>3174</v>
+      </c>
+      <c r="M21" s="111"/>
+    </row>
+    <row r="22" spans="1:16" s="115" customFormat="1">
+      <c r="A22" s="125">
+        <v>1</v>
+      </c>
+      <c r="B22" s="125">
+        <v>32</v>
+      </c>
+      <c r="C22" s="110" t="s">
+        <v>272</v>
+      </c>
+      <c r="D22" s="157">
+        <v>10</v>
+      </c>
+      <c r="E22" s="110" t="s">
+        <v>264</v>
+      </c>
+      <c r="F22" s="111" t="s">
+        <v>343</v>
+      </c>
+      <c r="G22" s="112">
+        <v>2</v>
+      </c>
+      <c r="H22" s="111" t="s">
+        <v>261</v>
+      </c>
+      <c r="I22" s="113">
+        <v>42833</v>
+      </c>
+      <c r="J22" s="113">
+        <v>43186</v>
+      </c>
+      <c r="K22" s="116" t="s">
+        <v>340</v>
+      </c>
+      <c r="L22" s="117" t="s">
+        <v>74</v>
+      </c>
+      <c r="M22" s="111"/>
+    </row>
+    <row r="23" spans="1:16" s="115" customFormat="1">
+      <c r="A23" s="125">
+        <v>1</v>
+      </c>
+      <c r="B23" s="125">
+        <v>33</v>
+      </c>
+      <c r="C23" s="110" t="s">
+        <v>273</v>
+      </c>
+      <c r="D23" s="157">
+        <v>10</v>
+      </c>
+      <c r="E23" s="110" t="s">
+        <v>264</v>
+      </c>
+      <c r="F23" s="111" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="112">
+        <v>2</v>
+      </c>
+      <c r="H23" s="111" t="s">
+        <v>261</v>
+      </c>
+      <c r="I23" s="113">
+        <v>42833</v>
+      </c>
+      <c r="J23" s="113">
+        <v>43186</v>
+      </c>
+      <c r="K23" s="116">
+        <v>47.6</v>
+      </c>
+      <c r="L23" s="117">
+        <f>K23*46</f>
+        <v>2189.6</v>
+      </c>
+      <c r="M23" s="111"/>
+    </row>
+    <row r="24" spans="1:16" s="115" customFormat="1">
+      <c r="A24" s="125">
+        <v>2</v>
+      </c>
+      <c r="B24" s="125" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="110" t="s">
+        <v>271</v>
+      </c>
+      <c r="D24" s="157">
+        <v>10</v>
+      </c>
+      <c r="E24" s="110" t="s">
+        <v>264</v>
+      </c>
+      <c r="F24" s="111" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="112">
+        <v>3</v>
+      </c>
+      <c r="H24" s="111" t="s">
+        <v>261</v>
+      </c>
+      <c r="I24" s="113">
+        <v>42833</v>
+      </c>
+      <c r="J24" s="113" t="s">
+        <v>358</v>
+      </c>
+      <c r="K24" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="L24" s="117"/>
+      <c r="M24" s="111"/>
+    </row>
+    <row r="25" spans="1:16" s="115" customFormat="1">
+      <c r="A25" s="125">
+        <v>3</v>
+      </c>
+      <c r="B25" s="125">
+        <v>28</v>
+      </c>
+      <c r="C25" s="110" t="s">
+        <v>268</v>
+      </c>
+      <c r="D25" s="157">
+        <v>10</v>
+      </c>
+      <c r="E25" s="110" t="s">
+        <v>264</v>
+      </c>
+      <c r="F25" s="111" t="s">
+        <v>344</v>
+      </c>
+      <c r="G25" s="112">
+        <v>3</v>
+      </c>
+      <c r="H25" s="111" t="s">
+        <v>261</v>
+      </c>
+      <c r="I25" s="113">
+        <v>42833</v>
+      </c>
+      <c r="J25" s="113">
+        <v>43186</v>
+      </c>
+      <c r="K25" s="116">
+        <v>83</v>
+      </c>
+      <c r="L25" s="117">
+        <f>K25*46</f>
+        <v>3818</v>
+      </c>
+      <c r="M25" s="111"/>
+      <c r="N25" s="114"/>
+      <c r="P25" s="114"/>
+    </row>
+    <row r="26" spans="1:16" s="166" customFormat="1">
+      <c r="A26" s="158">
+        <v>1</v>
+      </c>
+      <c r="B26" s="158">
+        <v>34</v>
+      </c>
+      <c r="C26" s="159" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="160">
+        <v>6</v>
+      </c>
+      <c r="E26" s="159" t="s">
+        <v>278</v>
+      </c>
+      <c r="F26" s="161" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="162" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="161" t="s">
+        <v>279</v>
+      </c>
+      <c r="I26" s="163">
+        <v>42905</v>
+      </c>
+      <c r="J26" s="163">
+        <v>43189</v>
+      </c>
+      <c r="K26" s="164">
+        <v>61.2</v>
+      </c>
+      <c r="L26" s="165">
+        <f>K26*(20-1)</f>
+        <v>1162.8</v>
+      </c>
+      <c r="M26" s="161" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="166" customFormat="1">
+      <c r="A27" s="158">
+        <v>1</v>
+      </c>
+      <c r="B27" s="158">
+        <v>35</v>
+      </c>
+      <c r="C27" s="159" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" s="160">
+        <v>6</v>
+      </c>
+      <c r="E27" s="159" t="s">
+        <v>278</v>
+      </c>
+      <c r="F27" s="161" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="162" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="161" t="s">
+        <v>279</v>
+      </c>
+      <c r="I27" s="163">
+        <v>42878</v>
+      </c>
+      <c r="J27" s="163">
+        <v>43189</v>
+      </c>
+      <c r="K27" s="164">
+        <v>71</v>
+      </c>
+      <c r="L27" s="165">
+        <f>K27*(20-1)</f>
+        <v>1349</v>
+      </c>
+      <c r="M27" s="161" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="166" customFormat="1">
+      <c r="A28" s="158">
+        <v>1</v>
+      </c>
+      <c r="B28" s="158">
+        <v>37</v>
+      </c>
+      <c r="C28" s="159" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" s="160">
+        <v>6</v>
+      </c>
+      <c r="E28" s="159" t="s">
+        <v>278</v>
+      </c>
+      <c r="F28" s="161" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="162" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" s="161" t="s">
+        <v>279</v>
+      </c>
+      <c r="I28" s="163">
+        <v>42901</v>
+      </c>
+      <c r="J28" s="163">
+        <v>43189</v>
+      </c>
+      <c r="K28" s="164">
+        <v>122</v>
+      </c>
+      <c r="L28" s="165">
+        <f>K28*(20-1)</f>
+        <v>2318</v>
+      </c>
+      <c r="M28" s="161" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="172" customFormat="1">
+      <c r="A29" s="167">
+        <v>1</v>
+      </c>
+      <c r="B29" s="167">
+        <v>39</v>
+      </c>
+      <c r="C29" s="168" t="s">
+        <v>150</v>
+      </c>
+      <c r="D29" s="160">
+        <v>6</v>
+      </c>
+      <c r="E29" s="168" t="s">
+        <v>278</v>
+      </c>
+      <c r="F29" s="168" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="162" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" s="168" t="s">
+        <v>279</v>
+      </c>
+      <c r="I29" s="169">
+        <v>42892</v>
+      </c>
+      <c r="J29" s="169">
+        <v>43189</v>
+      </c>
+      <c r="K29" s="170" t="s">
+        <v>340</v>
+      </c>
+      <c r="L29" s="171" t="s">
+        <v>74</v>
+      </c>
+      <c r="M29" s="168"/>
+    </row>
+    <row r="30" spans="1:16" s="180" customFormat="1">
+      <c r="A30" s="173">
+        <v>1</v>
+      </c>
+      <c r="B30" s="173">
+        <v>41</v>
+      </c>
+      <c r="C30" s="119" t="s">
+        <v>281</v>
+      </c>
+      <c r="D30" s="174">
+        <v>10</v>
+      </c>
+      <c r="E30" s="119" t="s">
+        <v>280</v>
+      </c>
+      <c r="F30" s="175" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="176" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="175" t="s">
+        <v>279</v>
+      </c>
+      <c r="I30" s="177">
+        <v>42876</v>
+      </c>
+      <c r="J30" s="177">
+        <v>43189</v>
+      </c>
+      <c r="K30" s="178">
+        <v>72.2</v>
+      </c>
+      <c r="L30" s="179">
+        <f>K30*(20-1)</f>
+        <v>1371.8</v>
+      </c>
+      <c r="M30" s="175" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="180" customFormat="1">
+      <c r="A31" s="173">
+        <v>1</v>
+      </c>
+      <c r="B31" s="173">
+        <v>44</v>
+      </c>
+      <c r="C31" s="119" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="174">
+        <v>10</v>
+      </c>
+      <c r="E31" s="119" t="s">
+        <v>280</v>
+      </c>
+      <c r="F31" s="175" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="176" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="175" t="s">
+        <v>279</v>
+      </c>
+      <c r="I31" s="177">
+        <v>42886</v>
+      </c>
+      <c r="J31" s="177">
+        <v>43189</v>
+      </c>
+      <c r="K31" s="178" t="s">
+        <v>340</v>
+      </c>
+      <c r="L31" s="179" t="s">
+        <v>74</v>
+      </c>
+      <c r="M31" s="175"/>
+    </row>
+    <row r="32" spans="1:16" s="180" customFormat="1">
+      <c r="A32" s="173">
+        <v>1</v>
+      </c>
+      <c r="B32" s="173">
+        <v>45</v>
+      </c>
+      <c r="C32" s="119" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32" s="174">
+        <v>10</v>
+      </c>
+      <c r="E32" s="119" t="s">
+        <v>280</v>
+      </c>
+      <c r="F32" s="175" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="176" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32" s="175" t="s">
+        <v>279</v>
+      </c>
+      <c r="I32" s="177">
+        <v>42910</v>
+      </c>
+      <c r="J32" s="177">
+        <v>43189</v>
+      </c>
+      <c r="K32" s="178" t="s">
+        <v>340</v>
+      </c>
+      <c r="L32" s="179" t="s">
+        <v>74</v>
+      </c>
+      <c r="M32" s="175"/>
+    </row>
+    <row r="33" spans="1:13" s="180" customFormat="1">
+      <c r="A33" s="173">
+        <v>1</v>
+      </c>
+      <c r="B33" s="173">
+        <v>47</v>
+      </c>
+      <c r="C33" s="119" t="s">
+        <v>361</v>
+      </c>
+      <c r="D33" s="174">
+        <v>10</v>
+      </c>
+      <c r="E33" s="119" t="s">
+        <v>280</v>
+      </c>
+      <c r="F33" s="175" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="176" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" s="175" t="s">
+        <v>279</v>
+      </c>
+      <c r="I33" s="177">
+        <v>42882</v>
+      </c>
+      <c r="J33" s="177">
+        <v>43189</v>
+      </c>
+      <c r="K33" s="178">
+        <v>194</v>
+      </c>
+      <c r="L33" s="179">
+        <f>K33*(20-1)</f>
+        <v>3686</v>
+      </c>
+      <c r="M33" s="175" t="s">
+        <v>282</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A21:O25">
+    <sortCondition ref="A21"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="38" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="25" max="16383" man="1"/>
+  </rowBreaks>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="12" max="1048575" man="1"/>
+  </colBreaks>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="80"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Data/Larval-DNA/DNA-extraction-data.xlsx
+++ b/Data/Larval-DNA/DNA-extraction-data.xlsx
@@ -12859,8 +12859,8 @@
   </sheetPr>
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Data/Larval-DNA/DNA-extraction-data.xlsx
+++ b/Data/Larval-DNA/DNA-extraction-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28331"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="25520" windowHeight="15280" tabRatio="1000" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="25520" windowHeight="15280" tabRatio="1000"/>
   </bookViews>
   <sheets>
     <sheet name="DNA Samples" sheetId="1" r:id="rId1"/>
@@ -3141,8 +3141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="C27" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12859,7 +12859,7 @@
   </sheetPr>
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A5" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -12961,7 +12961,7 @@
         <v>84</v>
       </c>
       <c r="L2" s="138">
-        <f>K2*46</f>
+        <f t="shared" ref="L2:L13" si="0">K2*46</f>
         <v>3864</v>
       </c>
       <c r="M2" s="134"/>
@@ -13003,7 +13003,7 @@
         <v>43.9</v>
       </c>
       <c r="L3" s="138">
-        <f>K3*46</f>
+        <f t="shared" si="0"/>
         <v>2019.3999999999999</v>
       </c>
       <c r="M3" s="134"/>
@@ -13045,7 +13045,7 @@
         <v>56</v>
       </c>
       <c r="L4" s="138">
-        <f>K4*46</f>
+        <f t="shared" si="0"/>
         <v>2576</v>
       </c>
       <c r="M4" s="134"/>
@@ -13087,7 +13087,7 @@
         <v>24.2</v>
       </c>
       <c r="L5" s="138">
-        <f>K5*46</f>
+        <f t="shared" si="0"/>
         <v>1113.2</v>
       </c>
       <c r="M5" s="134"/>
@@ -13129,7 +13129,7 @@
         <v>33.200000000000003</v>
       </c>
       <c r="L6" s="138">
-        <f>K6*46</f>
+        <f t="shared" si="0"/>
         <v>1527.2</v>
       </c>
       <c r="M6" s="134"/>
@@ -13171,7 +13171,7 @@
         <v>76</v>
       </c>
       <c r="L7" s="146">
-        <f>K7*46</f>
+        <f t="shared" si="0"/>
         <v>3496</v>
       </c>
       <c r="M7" s="142"/>
@@ -13213,7 +13213,7 @@
         <v>51</v>
       </c>
       <c r="L8" s="146">
-        <f>K8*46</f>
+        <f t="shared" si="0"/>
         <v>2346</v>
       </c>
       <c r="M8" s="142"/>
@@ -13255,7 +13255,7 @@
         <v>34.6</v>
       </c>
       <c r="L9" s="146">
-        <f>K9*46</f>
+        <f t="shared" si="0"/>
         <v>1591.6000000000001</v>
       </c>
       <c r="M9" s="142"/>
@@ -13297,7 +13297,7 @@
         <v>49.6</v>
       </c>
       <c r="L10" s="146">
-        <f>K10*46</f>
+        <f t="shared" si="0"/>
         <v>2281.6</v>
       </c>
       <c r="M10" s="142"/>
@@ -13339,7 +13339,7 @@
         <v>57</v>
       </c>
       <c r="L11" s="146">
-        <f>K11*46</f>
+        <f t="shared" si="0"/>
         <v>2622</v>
       </c>
       <c r="M11" s="142"/>
@@ -13381,7 +13381,7 @@
         <v>18.3</v>
       </c>
       <c r="L12" s="146">
-        <f>K12*46</f>
+        <f t="shared" si="0"/>
         <v>841.80000000000007</v>
       </c>
       <c r="M12" s="142"/>
@@ -13423,7 +13423,7 @@
         <v>19.600000000000001</v>
       </c>
       <c r="L13" s="146">
-        <f>K13*46</f>
+        <f t="shared" si="0"/>
         <v>901.6</v>
       </c>
       <c r="M13" s="142"/>
